--- a/fesch/output/output_001.xlsx
+++ b/fesch/output/output_001.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Munka\bme\onlab\fesch\output\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A51EFD5-42E7-4DE2-86FE-40CCB1E0DD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. kör" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="459">
   <si>
     <t>Összesítő</t>
   </si>
@@ -53,7 +61,7 @@
     <t>Titkár</t>
   </si>
   <si>
-    <t>2021. 00. 14. (hétfő) Terem0 VILL</t>
+    <t>2021. 10. 08. (péntek) Terem0 VILL</t>
   </si>
   <si>
     <t>1.</t>
@@ -203,10 +211,10 @@
     <t>11.</t>
   </si>
   <si>
-    <t>2021. 00. 14. (hétfő) Terem1 INFO</t>
-  </si>
-  <si>
-    <t>9:0</t>
+    <t>2021. 10. 08. (péntek) Terem1 INFO</t>
+  </si>
+  <si>
+    <t>9:00</t>
   </si>
   <si>
     <t>Lukács Barnabás</t>
@@ -251,7 +259,7 @@
     <t>Tóth Tibor</t>
   </si>
   <si>
-    <t>11:0</t>
+    <t>11:00</t>
   </si>
   <si>
     <t>Tölgyesi Olivér</t>
@@ -326,7 +334,7 @@
     <t>Dr. Blázovics László</t>
   </si>
   <si>
-    <t>2021. 00. 15. (kedd) Terem0 INFO</t>
+    <t>2021. 10. 09. (szombat) Terem0 INFO</t>
   </si>
   <si>
     <t>Félegyházy Mario Máté</t>
@@ -458,7 +466,7 @@
     <t>, Kövesdán Gábor</t>
   </si>
   <si>
-    <t>2021. 00. 15. (kedd) Terem1 INFO</t>
+    <t>2021. 10. 09. (szombat) Terem1 INFO</t>
   </si>
   <si>
     <t>Finta Norbert</t>
@@ -563,7 +571,7 @@
     <t>Rajacsics Tamás</t>
   </si>
   <si>
-    <t>2021. 00. 16. (szerda) Terem0 INFO</t>
+    <t>2021. 10. 10. (vasárnap) Terem0 INFO</t>
   </si>
   <si>
     <t>Gyuricska Milán András</t>
@@ -626,7 +634,7 @@
     <t>GGI3Q3</t>
   </si>
   <si>
-    <t>2021. 00. 16. (szerda) Terem1 VILL</t>
+    <t>2021. 10. 10. (vasárnap) Terem1 VILL</t>
   </si>
   <si>
     <t>Nursultan Bexultan</t>
@@ -707,7 +715,7 @@
     <t>Szabó Zoltán, Dr. Csorba Kristóf</t>
   </si>
   <si>
-    <t>2021. 00. 17. (csütörtök) Terem0 INFO</t>
+    <t>2021. 10. 11. (hétfő) Terem0 INFO</t>
   </si>
   <si>
     <t>Atyi Ádám</t>
@@ -788,7 +796,7 @@
     <t>HTGSMK</t>
   </si>
   <si>
-    <t>2021. 00. 17. (csütörtök) Terem1 INFO</t>
+    <t>2021. 10. 11. (hétfő) Terem1 INFO</t>
   </si>
   <si>
     <t>Horváth Péter</t>
@@ -863,7 +871,7 @@
     <t>GKBPUJ</t>
   </si>
   <si>
-    <t>2021. 00. 18. (péntek) Terem0 INFO</t>
+    <t>2021. 10. 12. (kedd) Terem0 INFO</t>
   </si>
   <si>
     <t>Horváth Viktor András</t>
@@ -932,7 +940,7 @@
     <t>GW3XKA</t>
   </si>
   <si>
-    <t>2021. 00. 18. (péntek) Terem1 INFO</t>
+    <t>2021. 10. 12. (kedd) Terem1 INFO</t>
   </si>
   <si>
     <t>Shahsuvarov Murad</t>
@@ -1001,7 +1009,7 @@
     <t>HIKUWK</t>
   </si>
   <si>
-    <t>2021. 00. 19. (szombat) Terem0 VILL</t>
+    <t>2021. 10. 13. (szerda) Terem0 VILL</t>
   </si>
   <si>
     <t>Kondákor András</t>
@@ -1055,7 +1063,7 @@
     <t>KTUXHE</t>
   </si>
   <si>
-    <t>2021. 00. 19. (szombat) Terem1 INFO</t>
+    <t>2021. 10. 13. (szerda) Terem1 INFO</t>
   </si>
   <si>
     <t>Márin Krisztián</t>
@@ -1115,7 +1123,7 @@
     <t>GMN2QN</t>
   </si>
   <si>
-    <t>2021. 00. 20. (vasárnap) Terem0 INFO</t>
+    <t>2021. 10. 14. (csütörtök) Terem0 INFO</t>
   </si>
   <si>
     <t>Mórucz Nándor</t>
@@ -1178,7 +1186,7 @@
     <t>J52DHG</t>
   </si>
   <si>
-    <t>2021. 00. 21. (hétfő) Terem0 VILL</t>
+    <t>2021. 10. 15. (péntek) Terem0 VILL</t>
   </si>
   <si>
     <t>Reucsán Bence</t>
@@ -1223,7 +1231,7 @@
     <t>A7UGJX</t>
   </si>
   <si>
-    <t>2021. 00. 22. (kedd) Terem0 INFO</t>
+    <t>2021. 10. 16. (szombat) Terem0 INFO</t>
   </si>
   <si>
     <t>Pálinkás Sára</t>
@@ -1286,7 +1294,7 @@
     <t xml:space="preserve">Dr. Forstner Bertalan, </t>
   </si>
   <si>
-    <t>2021. 00. 22. (kedd) Terem1 VILL</t>
+    <t>2021. 10. 16. (szombat) Terem1 VILL</t>
   </si>
   <si>
     <t>Nagy Viktória</t>
@@ -1340,7 +1348,7 @@
     <t>F85BSF</t>
   </si>
   <si>
-    <t>2021. 00. 23. (szerda) Terem0 INFO</t>
+    <t>2021. 10. 17. (vasárnap) Terem0 INFO</t>
   </si>
   <si>
     <t>Pávlicz András</t>
@@ -1394,9 +1402,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1416,7 +1423,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC" tint="0"/>
+        <fgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1432,77 +1439,406 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick"/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" borderId="1">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N188"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.327130317688" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.7038021087646" customWidth="1"/>
-    <col min="5" max="5" width="10.1682767868042" customWidth="1"/>
-    <col min="6" max="6" width="13.8010873794556" customWidth="1"/>
-    <col min="7" max="7" width="25.4578037261963" customWidth="1"/>
-    <col min="8" max="8" width="82.8629989624023" customWidth="1"/>
-    <col min="9" max="9" width="10.6799945831299" customWidth="1"/>
-    <col min="10" max="10" width="36.4618911743164" customWidth="1"/>
-    <col min="11" max="11" width="17.1054973602295" customWidth="1"/>
-    <col min="12" max="12" width="22.5297889709473" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="21.0442981719971" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="25.44140625" customWidth="1"/>
+    <col min="8" max="8" width="82.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="36.44140625" customWidth="1"/>
+    <col min="11" max="11" width="17.109375" customWidth="1"/>
+    <col min="12" max="12" width="22.5546875" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="14" max="14" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1546,8 +1882,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1577,21 +1913,21 @@
       <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="M2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1621,21 +1957,21 @@
       <c r="J3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1665,21 +2001,21 @@
       <c r="J4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="2" t="s">
+      <c r="M4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -1709,21 +2045,21 @@
       <c r="J5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="K5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1753,21 +2089,21 @@
       <c r="J6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="K6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -1803,15 +2139,15 @@
       <c r="L7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1847,15 +2183,15 @@
       <c r="L8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1885,21 +2221,21 @@
       <c r="J9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="2" t="s">
+      <c r="M9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1929,21 +2265,21 @@
       <c r="J10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="2" t="s">
+      <c r="M10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1973,21 +2309,21 @@
       <c r="J11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="K11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2017,21 +2353,21 @@
       <c r="J12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="s">
+      <c r="K12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2061,21 +2397,21 @@
       <c r="J13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="4" t="s">
+      <c r="K13" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="4" t="s">
+      <c r="L13" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="4" t="s">
+      <c r="M13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2105,21 +2441,21 @@
       <c r="J14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="4" t="s">
+      <c r="K14" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="4" t="s">
+      <c r="M14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2149,21 +2485,21 @@
       <c r="J15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="4" t="s">
+      <c r="M15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2193,21 +2529,21 @@
       <c r="J16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="8" t="s">
         <v>69</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="4" t="s">
+      <c r="M16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2237,21 +2573,21 @@
       <c r="J17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="4" t="s">
+      <c r="K17" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="4" t="s">
+      <c r="L17" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="4" t="s">
+      <c r="M17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2281,21 +2617,21 @@
       <c r="J18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="4" t="s">
+      <c r="K18" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="4" t="s">
+      <c r="M18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2325,21 +2661,21 @@
       <c r="J19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K19" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="4" t="s">
+      <c r="L19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="4" t="s">
+      <c r="M19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="4" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2369,21 +2705,21 @@
       <c r="J20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="4" t="s">
+      <c r="K20" s="8" t="s">
         <v>69</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="4" t="s">
+      <c r="M20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2419,15 +2755,15 @@
       <c r="L21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="4" t="s">
+      <c r="M21" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2457,21 +2793,21 @@
       <c r="J22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K22" s="8" t="s">
         <v>69</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="4" t="s">
+      <c r="M22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2501,21 +2837,21 @@
       <c r="J23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="9" t="s">
         <v>69</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="5" t="s">
+      <c r="M23" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2545,21 +2881,21 @@
       <c r="J24" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="6" t="s">
         <v>110</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="2" t="s">
+      <c r="M24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2589,21 +2925,21 @@
       <c r="J25" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="6" t="s">
         <v>110</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="2" t="s">
+      <c r="M25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2633,21 +2969,21 @@
       <c r="J26" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="M26" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="2" t="s">
+      <c r="M26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -2677,21 +3013,21 @@
       <c r="J27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="2" t="s">
+      <c r="M27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -2721,21 +3057,21 @@
       <c r="J28" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="2" t="s">
+      <c r="M28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -2765,21 +3101,21 @@
       <c r="J29" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K29" s="6" t="s">
         <v>110</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M29" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="2" t="s">
+      <c r="M29" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -2809,21 +3145,21 @@
       <c r="J30" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K30" s="2" t="s">
+      <c r="K30" s="6" t="s">
         <v>110</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="M30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="2" t="s">
+      <c r="M30" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -2853,21 +3189,21 @@
       <c r="J31" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="K31" s="6" t="s">
         <v>110</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="2" t="s">
+      <c r="M31" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -2897,21 +3233,21 @@
       <c r="J32" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="6" t="s">
         <v>110</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M32" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="2" t="s">
+      <c r="M32" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="s">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -2941,21 +3277,21 @@
       <c r="J33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="s">
+      <c r="K33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2985,21 +3321,21 @@
       <c r="J34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="4" t="s">
+      <c r="K34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
         <v>148</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -3029,21 +3365,21 @@
       <c r="J35" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" s="8" t="s">
         <v>69</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="4" t="s">
+      <c r="M35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="4" t="s">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
         <v>148</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3073,21 +3409,21 @@
       <c r="J36" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" s="8" t="s">
         <v>69</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" s="4" t="s">
+      <c r="M36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="4" t="s">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
         <v>148</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -3117,21 +3453,21 @@
       <c r="J37" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" s="8" t="s">
         <v>69</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N37" s="4" t="s">
+      <c r="M37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="4" t="s">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
         <v>148</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -3161,21 +3497,21 @@
       <c r="J38" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" s="8" t="s">
         <v>69</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="M38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N38" s="4" t="s">
+      <c r="M38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
         <v>148</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -3205,21 +3541,21 @@
       <c r="J39" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" s="8" t="s">
         <v>69</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N39" s="4" t="s">
+      <c r="M39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
         <v>148</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -3249,21 +3585,21 @@
       <c r="J40" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="8" t="s">
         <v>69</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N40" s="4" t="s">
+      <c r="M40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
         <v>148</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3293,21 +3629,21 @@
       <c r="J41" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="K41" s="4" t="s">
+      <c r="K41" s="8" t="s">
         <v>69</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N41" s="4" t="s">
+      <c r="M41" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>148</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -3337,21 +3673,21 @@
       <c r="J42" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K42" s="4" t="s">
+      <c r="K42" s="8" t="s">
         <v>69</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M42" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N42" s="4" t="s">
+      <c r="M42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
         <v>148</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -3381,21 +3717,21 @@
       <c r="J43" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K43" s="4" t="s">
+      <c r="K43" s="8" t="s">
         <v>69</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M43" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N43" s="4" t="s">
+      <c r="M43" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
         <v>148</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -3425,21 +3761,21 @@
       <c r="J44" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="5" t="s">
+      <c r="K44" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
         <v>148</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -3469,21 +3805,21 @@
       <c r="J45" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K45" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L45" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N45" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="s">
+      <c r="K45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
         <v>183</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3513,21 +3849,21 @@
       <c r="J46" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="K46" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M46" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N46" s="2" t="s">
+      <c r="M46" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="2" t="s">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
         <v>183</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3557,21 +3893,21 @@
       <c r="J47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K47" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M47" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N47" s="2" t="s">
+      <c r="M47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
         <v>183</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3601,21 +3937,21 @@
       <c r="J48" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K48" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M48" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N48" s="2" t="s">
+      <c r="M48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N48" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="2" t="s">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
         <v>183</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3645,21 +3981,21 @@
       <c r="J49" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K49" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N49" s="2" t="s">
+      <c r="M49" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="2" t="s">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
         <v>183</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3689,21 +4025,21 @@
       <c r="J50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K50" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M50" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N50" s="2" t="s">
+      <c r="M50" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="2" t="s">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
         <v>183</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -3733,21 +4069,21 @@
       <c r="J51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K51" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N51" s="2" t="s">
+      <c r="M51" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
         <v>183</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -3777,21 +4113,21 @@
       <c r="J52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="K52" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L52" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M52" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N52" s="2" t="s">
+      <c r="M52" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="2" t="s">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
         <v>183</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -3821,21 +4157,21 @@
       <c r="J53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L53" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M53" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N53" s="2" t="s">
+      <c r="M53" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N53" s="6" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="2" t="s">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
         <v>183</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -3871,15 +4207,15 @@
       <c r="L54" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="2" t="s">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
         <v>183</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -3915,15 +4251,15 @@
       <c r="L55" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="3" t="s">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A56" s="7" t="s">
         <v>183</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -3959,15 +4295,15 @@
       <c r="L56" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="M56" s="7" t="s">
         <v>21</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A57" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -3997,21 +4333,21 @@
       <c r="J57" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K57" s="4" t="s">
+      <c r="K57" s="8" t="s">
         <v>95</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M57" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N57" s="4" t="s">
+      <c r="M57" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A58" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -4041,21 +4377,21 @@
       <c r="J58" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="K58" s="4" t="s">
+      <c r="K58" s="8" t="s">
         <v>95</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M58" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N58" s="4" t="s">
+      <c r="M58" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N58" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A59" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -4085,21 +4421,21 @@
       <c r="J59" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K59" s="4" t="s">
+      <c r="K59" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="L59" s="4" t="s">
+      <c r="L59" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M59" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N59" s="4" t="s">
+      <c r="M59" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="4" t="s">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A60" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -4129,21 +4465,21 @@
       <c r="J60" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K60" s="4" t="s">
+      <c r="K60" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="L60" s="4" t="s">
+      <c r="L60" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M60" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N60" s="4" t="s">
+      <c r="M60" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A61" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -4173,21 +4509,21 @@
       <c r="J61" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K61" s="4" t="s">
+      <c r="K61" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="L61" s="4" t="s">
+      <c r="L61" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M61" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N61" s="4" t="s">
+      <c r="M61" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A62" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -4217,21 +4553,21 @@
       <c r="J62" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K62" s="4" t="s">
+      <c r="K62" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="L62" s="4" t="s">
+      <c r="L62" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M62" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N62" s="4" t="s">
+      <c r="M62" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="4" t="s">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -4267,15 +4603,15 @@
       <c r="L63" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M63" s="4" t="s">
+      <c r="M63" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="4" t="s">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A64" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -4305,21 +4641,21 @@
       <c r="J64" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K64" s="4" t="s">
+      <c r="K64" s="8" t="s">
         <v>95</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M64" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N64" s="4" t="s">
+      <c r="M64" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A65" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -4349,21 +4685,21 @@
       <c r="J65" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="K65" s="4" t="s">
+      <c r="K65" s="8" t="s">
         <v>95</v>
       </c>
       <c r="L65" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M65" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N65" s="4" t="s">
+      <c r="M65" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="4" t="s">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A66" s="8" t="s">
         <v>204</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -4393,21 +4729,21 @@
       <c r="J66" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K66" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M66" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N66" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="5" t="s">
+      <c r="K66" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A67" s="9" t="s">
         <v>204</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -4437,21 +4773,21 @@
       <c r="J67" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K67" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L67" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M67" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N67" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="s">
+      <c r="K67" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
         <v>231</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -4481,21 +4817,21 @@
       <c r="J68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="K68" s="6" t="s">
         <v>110</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M68" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N68" s="2" t="s">
+      <c r="M68" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N68" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="s">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
         <v>231</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -4525,21 +4861,21 @@
       <c r="J69" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="K69" s="6" t="s">
         <v>110</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M69" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N69" s="2" t="s">
+      <c r="M69" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N69" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="s">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
         <v>231</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -4569,21 +4905,21 @@
       <c r="J70" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K70" s="2" t="s">
+      <c r="K70" s="6" t="s">
         <v>110</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M70" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N70" s="2" t="s">
+      <c r="M70" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N70" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="s">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
         <v>231</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -4613,21 +4949,21 @@
       <c r="J71" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="K71" s="6" t="s">
         <v>110</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M71" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N71" s="2" t="s">
+      <c r="M71" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N71" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="s">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
         <v>231</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -4657,21 +4993,21 @@
       <c r="J72" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="K72" s="6" t="s">
         <v>110</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M72" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N72" s="2" t="s">
+      <c r="M72" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N72" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="s">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
         <v>231</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -4701,21 +5037,21 @@
       <c r="J73" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="K73" s="6" t="s">
         <v>110</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N73" s="2" t="s">
+      <c r="M73" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N73" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="s">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
         <v>231</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -4745,21 +5081,21 @@
       <c r="J74" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K74" s="6" t="s">
         <v>110</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M74" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N74" s="2" t="s">
+      <c r="M74" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="s">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
         <v>231</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -4789,21 +5125,21 @@
       <c r="J75" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="K75" s="6" t="s">
         <v>110</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M75" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N75" s="2" t="s">
+      <c r="M75" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="s">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
         <v>231</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -4833,21 +5169,21 @@
       <c r="J76" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="K76" s="6" t="s">
         <v>110</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M76" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N76" s="2" t="s">
+      <c r="M76" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N76" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="s">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
         <v>231</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -4877,21 +5213,21 @@
       <c r="J77" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K77" s="2" t="s">
+      <c r="K77" s="6" t="s">
         <v>110</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M77" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N77" s="2" t="s">
+      <c r="M77" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N77" s="6" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="3" t="s">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A78" s="7" t="s">
         <v>231</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -4921,21 +5257,21 @@
       <c r="J78" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K78" s="3" t="s">
+      <c r="K78" s="7" t="s">
         <v>110</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M78" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N78" s="3" t="s">
+      <c r="M78" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N78" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="4" t="s">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A79" s="8" t="s">
         <v>258</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -4965,21 +5301,21 @@
       <c r="J79" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K79" s="4" t="s">
+      <c r="K79" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L79" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M79" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N79" s="4" t="s">
+      <c r="M79" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N79" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="4" t="s">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A80" s="8" t="s">
         <v>258</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -5009,21 +5345,21 @@
       <c r="J80" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K80" s="4" t="s">
+      <c r="K80" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L80" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="M80" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N80" s="4" t="s">
+      <c r="M80" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N80" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="4" t="s">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A81" s="8" t="s">
         <v>258</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -5053,21 +5389,21 @@
       <c r="J81" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K81" s="4" t="s">
+      <c r="K81" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L81" s="4" t="s">
+      <c r="L81" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M81" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N81" s="4" t="s">
+      <c r="M81" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N81" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="4" t="s">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A82" s="8" t="s">
         <v>258</v>
       </c>
       <c r="B82" s="4" t="s">
@@ -5097,21 +5433,21 @@
       <c r="J82" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K82" s="4" t="s">
+      <c r="K82" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L82" s="4" t="s">
+      <c r="L82" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M82" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N82" s="4" t="s">
+      <c r="M82" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N82" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="4" t="s">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A83" s="8" t="s">
         <v>258</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -5141,21 +5477,21 @@
       <c r="J83" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K83" s="4" t="s">
+      <c r="K83" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L83" s="4" t="s">
+      <c r="L83" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M83" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N83" s="4" t="s">
+      <c r="M83" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N83" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="4" t="s">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A84" s="8" t="s">
         <v>258</v>
       </c>
       <c r="B84" s="4" t="s">
@@ -5185,21 +5521,21 @@
       <c r="J84" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K84" s="4" t="s">
+      <c r="K84" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L84" s="4" t="s">
+      <c r="L84" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M84" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N84" s="4" t="s">
+      <c r="M84" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N84" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="4" t="s">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A85" s="8" t="s">
         <v>258</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -5229,21 +5565,21 @@
       <c r="J85" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K85" s="4" t="s">
+      <c r="K85" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L85" s="4" t="s">
+      <c r="L85" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M85" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N85" s="4" t="s">
+      <c r="M85" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N85" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="4" t="s">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A86" s="8" t="s">
         <v>258</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -5273,21 +5609,21 @@
       <c r="J86" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="4" t="s">
+      <c r="K86" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="L86" s="4" t="s">
+      <c r="L86" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="M86" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N86" s="4" t="s">
+      <c r="M86" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N86" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="4" t="s">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A87" s="8" t="s">
         <v>258</v>
       </c>
       <c r="B87" s="4" t="s">
@@ -5323,15 +5659,15 @@
       <c r="L87" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M87" s="4" t="s">
+      <c r="M87" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N87" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="4" t="s">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
         <v>258</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -5361,21 +5697,21 @@
       <c r="J88" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K88" s="4" t="s">
+      <c r="K88" s="8" t="s">
         <v>24</v>
       </c>
       <c r="L88" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M88" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N88" s="4" t="s">
+      <c r="M88" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N88" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="5" t="s">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A89" s="9" t="s">
         <v>258</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -5405,21 +5741,21 @@
       <c r="J89" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="K89" s="5" t="s">
+      <c r="K89" s="9" t="s">
         <v>24</v>
       </c>
       <c r="L89" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="M89" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N89" s="5" t="s">
+      <c r="M89" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N89" s="9" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="s">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
         <v>283</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -5449,21 +5785,21 @@
       <c r="J90" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K90" s="2" t="s">
+      <c r="K90" s="6" t="s">
         <v>73</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M90" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N90" s="2" t="s">
+      <c r="M90" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N90" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="s">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
         <v>283</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -5493,21 +5829,21 @@
       <c r="J91" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K91" s="2" t="s">
+      <c r="K91" s="6" t="s">
         <v>73</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M91" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N91" s="2" t="s">
+      <c r="M91" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N91" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="s">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
         <v>283</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -5537,21 +5873,21 @@
       <c r="J92" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="K92" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L92" s="2" t="s">
+      <c r="L92" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M92" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N92" s="2" t="s">
+      <c r="M92" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N92" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="s">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
         <v>283</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -5581,21 +5917,21 @@
       <c r="J93" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="K93" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L93" s="2" t="s">
+      <c r="L93" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M93" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N93" s="2" t="s">
+      <c r="M93" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N93" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="s">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
         <v>283</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -5625,21 +5961,21 @@
       <c r="J94" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="K94" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L94" s="2" t="s">
+      <c r="L94" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M94" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N94" s="2" t="s">
+      <c r="M94" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N94" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="s">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
         <v>283</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -5669,21 +6005,21 @@
       <c r="J95" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="K95" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L95" s="2" t="s">
+      <c r="L95" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M95" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N95" s="2" t="s">
+      <c r="M95" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N95" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="s">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
         <v>283</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -5713,21 +6049,21 @@
       <c r="J96" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="K96" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L96" s="2" t="s">
+      <c r="L96" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M96" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N96" s="2" t="s">
+      <c r="M96" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N96" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="s">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
         <v>283</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -5763,15 +6099,15 @@
       <c r="L97" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N97" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="s">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
         <v>283</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -5801,21 +6137,21 @@
       <c r="J98" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="K98" s="6" t="s">
         <v>73</v>
       </c>
       <c r="L98" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M98" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N98" s="2" t="s">
+      <c r="M98" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N98" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="s">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
         <v>283</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -5845,21 +6181,21 @@
       <c r="J99" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="K99" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="L99" s="2" t="s">
+      <c r="L99" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M99" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N99" s="2" t="s">
+      <c r="M99" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N99" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="3" t="s">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A100" s="7" t="s">
         <v>283</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -5889,21 +6225,21 @@
       <c r="J100" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="K100" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="L100" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N100" s="3" t="s">
+      <c r="M100" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N100" s="7" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="4" t="s">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A101" s="8" t="s">
         <v>306</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -5933,21 +6269,21 @@
       <c r="J101" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K101" s="4" t="s">
+      <c r="K101" s="8" t="s">
         <v>172</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M101" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N101" s="4" t="s">
+      <c r="M101" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N101" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="4" t="s">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A102" s="8" t="s">
         <v>306</v>
       </c>
       <c r="B102" s="4" t="s">
@@ -5977,21 +6313,21 @@
       <c r="J102" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K102" s="4" t="s">
+      <c r="K102" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="L102" s="4" t="s">
+      <c r="L102" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="M102" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N102" s="4" t="s">
+      <c r="M102" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N102" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="4" t="s">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A103" s="8" t="s">
         <v>306</v>
       </c>
       <c r="B103" s="4" t="s">
@@ -6021,21 +6357,21 @@
       <c r="J103" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K103" s="4" t="s">
+      <c r="K103" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="L103" s="4" t="s">
+      <c r="L103" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="M103" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N103" s="4" t="s">
+      <c r="M103" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N103" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="4" t="s">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A104" s="8" t="s">
         <v>306</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -6065,21 +6401,21 @@
       <c r="J104" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K104" s="4" t="s">
+      <c r="K104" s="8" t="s">
         <v>172</v>
       </c>
       <c r="L104" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M104" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N104" s="4" t="s">
+      <c r="M104" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N104" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="4" t="s">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A105" s="8" t="s">
         <v>306</v>
       </c>
       <c r="B105" s="4" t="s">
@@ -6109,21 +6445,21 @@
       <c r="J105" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="K105" s="4" t="s">
+      <c r="K105" s="8" t="s">
         <v>172</v>
       </c>
       <c r="L105" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M105" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N105" s="4" t="s">
+      <c r="M105" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N105" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="4" t="s">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A106" s="8" t="s">
         <v>306</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -6153,21 +6489,21 @@
       <c r="J106" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="K106" s="4" t="s">
+      <c r="K106" s="8" t="s">
         <v>172</v>
       </c>
       <c r="L106" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="M106" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N106" s="4" t="s">
+      <c r="M106" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N106" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="4" t="s">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A107" s="8" t="s">
         <v>306</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -6197,21 +6533,21 @@
       <c r="J107" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K107" s="4" t="s">
+      <c r="K107" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="L107" s="4" t="s">
+      <c r="L107" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="M107" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N107" s="4" t="s">
+      <c r="M107" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N107" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="4" t="s">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A108" s="8" t="s">
         <v>306</v>
       </c>
       <c r="B108" s="4" t="s">
@@ -6241,21 +6577,21 @@
       <c r="J108" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K108" s="4" t="s">
+      <c r="K108" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="L108" s="4" t="s">
+      <c r="L108" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="M108" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N108" s="4" t="s">
+      <c r="M108" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N108" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="4" t="s">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A109" s="8" t="s">
         <v>306</v>
       </c>
       <c r="B109" s="4" t="s">
@@ -6285,21 +6621,21 @@
       <c r="J109" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="K109" s="4" t="s">
+      <c r="K109" s="8" t="s">
         <v>172</v>
       </c>
       <c r="L109" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M109" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N109" s="4" t="s">
+      <c r="M109" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N109" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="4" t="s">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A110" s="8" t="s">
         <v>306</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -6329,21 +6665,21 @@
       <c r="J110" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K110" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L110" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M110" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N110" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="5" t="s">
+      <c r="K110" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L110" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M110" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N110" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A111" s="9" t="s">
         <v>306</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -6373,21 +6709,21 @@
       <c r="J111" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K111" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L111" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M111" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N111" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="s">
+      <c r="K111" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L111" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M111" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N111" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A112" s="6" t="s">
         <v>329</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -6417,21 +6753,21 @@
       <c r="J112" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K112" s="2" t="s">
+      <c r="K112" s="6" t="s">
         <v>23</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M112" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N112" s="2" t="s">
+      <c r="M112" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N112" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="s">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A113" s="6" t="s">
         <v>329</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -6461,21 +6797,21 @@
       <c r="J113" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="K113" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L113" s="2" t="s">
+      <c r="L113" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M113" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N113" s="2" t="s">
+      <c r="M113" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N113" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="s">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A114" s="6" t="s">
         <v>329</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -6505,21 +6841,21 @@
       <c r="J114" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="K114" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L114" s="2" t="s">
+      <c r="L114" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M114" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N114" s="2" t="s">
+      <c r="M114" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N114" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="s">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A115" s="6" t="s">
         <v>329</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -6549,21 +6885,21 @@
       <c r="J115" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K115" s="2" t="s">
+      <c r="K115" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L115" s="2" t="s">
+      <c r="L115" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="M115" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N115" s="2" t="s">
+      <c r="M115" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N115" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="s">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A116" s="6" t="s">
         <v>329</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -6599,15 +6935,15 @@
       <c r="L116" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="s">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A117" s="6" t="s">
         <v>329</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -6637,21 +6973,21 @@
       <c r="J117" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="K117" s="6" t="s">
         <v>23</v>
       </c>
       <c r="L117" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M117" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N117" s="2" t="s">
+      <c r="M117" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N117" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="s">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A118" s="6" t="s">
         <v>329</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -6681,21 +7017,21 @@
       <c r="J118" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K118" s="2" t="s">
+      <c r="K118" s="6" t="s">
         <v>23</v>
       </c>
       <c r="L118" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M118" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N118" s="2" t="s">
+      <c r="M118" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N118" s="6" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="s">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A119" s="6" t="s">
         <v>329</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -6731,15 +7067,15 @@
       <c r="L119" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N119" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="s">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A120" s="6" t="s">
         <v>329</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -6775,15 +7111,15 @@
       <c r="L120" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N120" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="s">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A121" s="6" t="s">
         <v>329</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -6813,21 +7149,21 @@
       <c r="J121" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K121" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L121" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M121" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N121" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="3" t="s">
+      <c r="K121" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L121" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M121" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N121" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A122" s="7" t="s">
         <v>329</v>
       </c>
       <c r="B122" s="3" t="s">
@@ -6857,21 +7193,21 @@
       <c r="J122" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K122" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L122" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M122" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N122" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="4" t="s">
+      <c r="K122" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L122" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M122" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N122" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A123" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -6901,21 +7237,21 @@
       <c r="J123" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K123" s="4" t="s">
+      <c r="K123" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="L123" s="4" t="s">
+      <c r="L123" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="M123" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N123" s="4" t="s">
+      <c r="M123" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N123" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="4" t="s">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A124" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B124" s="4" t="s">
@@ -6945,21 +7281,21 @@
       <c r="J124" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K124" s="4" t="s">
+      <c r="K124" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="L124" s="4" t="s">
+      <c r="L124" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="M124" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N124" s="4" t="s">
+      <c r="M124" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N124" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="4" t="s">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A125" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B125" s="4" t="s">
@@ -6989,21 +7325,21 @@
       <c r="J125" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K125" s="4" t="s">
+      <c r="K125" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="L125" s="4" t="s">
+      <c r="L125" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="M125" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N125" s="4" t="s">
+      <c r="M125" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N125" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="4" t="s">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A126" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -7033,21 +7369,21 @@
       <c r="J126" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K126" s="4" t="s">
+      <c r="K126" s="8" t="s">
         <v>140</v>
       </c>
       <c r="L126" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M126" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N126" s="4" t="s">
+      <c r="M126" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N126" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="4" t="s">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A127" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B127" s="4" t="s">
@@ -7083,15 +7419,15 @@
       <c r="L127" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M127" s="4" t="s">
+      <c r="M127" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N127" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="4" t="s">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A128" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B128" s="4" t="s">
@@ -7121,21 +7457,21 @@
       <c r="J128" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="K128" s="4" t="s">
+      <c r="K128" s="8" t="s">
         <v>140</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M128" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N128" s="4" t="s">
+      <c r="M128" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N128" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="4" t="s">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A129" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -7165,21 +7501,21 @@
       <c r="J129" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="K129" s="4" t="s">
+      <c r="K129" s="8" t="s">
         <v>140</v>
       </c>
       <c r="L129" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M129" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N129" s="4" t="s">
+      <c r="M129" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N129" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="4" t="s">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A130" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B130" s="4" t="s">
@@ -7209,21 +7545,21 @@
       <c r="J130" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K130" s="4" t="s">
+      <c r="K130" s="8" t="s">
         <v>140</v>
       </c>
       <c r="L130" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M130" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N130" s="4" t="s">
+      <c r="M130" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N130" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="4" t="s">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A131" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B131" s="4" t="s">
@@ -7253,21 +7589,21 @@
       <c r="J131" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K131" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L131" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M131" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N131" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="4" t="s">
+      <c r="K131" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L131" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M131" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N131" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A132" s="8" t="s">
         <v>347</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -7297,21 +7633,21 @@
       <c r="J132" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K132" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L132" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M132" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N132" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="5" t="s">
+      <c r="K132" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L132" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M132" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N132" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A133" s="9" t="s">
         <v>347</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -7341,21 +7677,21 @@
       <c r="J133" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K133" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L133" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M133" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N133" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="s">
+      <c r="K133" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L133" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M133" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N133" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A134" s="6" t="s">
         <v>367</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -7385,21 +7721,21 @@
       <c r="J134" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="K134" s="2" t="s">
+      <c r="K134" s="6" t="s">
         <v>69</v>
       </c>
       <c r="L134" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="M134" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N134" s="2" t="s">
+      <c r="M134" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N134" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="s">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A135" s="6" t="s">
         <v>367</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -7429,21 +7765,21 @@
       <c r="J135" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K135" s="6" t="s">
         <v>69</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M135" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N135" s="2" t="s">
+      <c r="M135" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N135" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="s">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A136" s="6" t="s">
         <v>367</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -7473,21 +7809,21 @@
       <c r="J136" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="K136" s="6" t="s">
         <v>69</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M136" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N136" s="2" t="s">
+      <c r="M136" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N136" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="s">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A137" s="6" t="s">
         <v>367</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -7517,21 +7853,21 @@
       <c r="J137" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K137" s="2" t="s">
+      <c r="K137" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L137" s="2" t="s">
+      <c r="L137" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M137" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N137" s="2" t="s">
+      <c r="M137" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N137" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="s">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A138" s="6" t="s">
         <v>367</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -7561,21 +7897,21 @@
       <c r="J138" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="K138" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L138" s="2" t="s">
+      <c r="L138" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M138" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N138" s="2" t="s">
+      <c r="M138" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N138" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="s">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A139" s="6" t="s">
         <v>367</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -7611,15 +7947,15 @@
       <c r="L139" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N139" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="s">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A140" s="6" t="s">
         <v>367</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -7649,21 +7985,21 @@
       <c r="J140" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="K140" s="2" t="s">
+      <c r="K140" s="6" t="s">
         <v>69</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M140" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N140" s="2" t="s">
+      <c r="M140" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N140" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="s">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A141" s="6" t="s">
         <v>367</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -7693,21 +8029,21 @@
       <c r="J141" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K141" s="2" t="s">
+      <c r="K141" s="6" t="s">
         <v>69</v>
       </c>
       <c r="L141" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M141" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N141" s="2" t="s">
+      <c r="M141" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N141" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="s">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A142" s="6" t="s">
         <v>367</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -7743,15 +8079,15 @@
       <c r="L142" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N142" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="s">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A143" s="6" t="s">
         <v>367</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -7781,21 +8117,21 @@
       <c r="J143" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="K143" s="2" t="s">
+      <c r="K143" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L143" s="2" t="s">
+      <c r="L143" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="M143" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N143" s="2" t="s">
+      <c r="M143" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N143" s="6" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="3" t="s">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A144" s="7" t="s">
         <v>367</v>
       </c>
       <c r="B144" s="3" t="s">
@@ -7825,21 +8161,21 @@
       <c r="J144" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="K144" s="3" t="s">
+      <c r="K144" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L144" s="3" t="s">
+      <c r="L144" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="M144" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N144" s="3" t="s">
+      <c r="M144" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N144" s="7" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="4" t="s">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A145" s="8" t="s">
         <v>388</v>
       </c>
       <c r="B145" s="4" t="s">
@@ -7869,21 +8205,21 @@
       <c r="J145" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K145" s="4" t="s">
+      <c r="K145" s="8" t="s">
         <v>392</v>
       </c>
       <c r="L145" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M145" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N145" s="4" t="s">
+      <c r="M145" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N145" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="4" t="s">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A146" s="8" t="s">
         <v>388</v>
       </c>
       <c r="B146" s="4" t="s">
@@ -7913,21 +8249,21 @@
       <c r="J146" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K146" s="4" t="s">
+      <c r="K146" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="L146" s="4" t="s">
+      <c r="L146" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M146" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N146" s="4" t="s">
+      <c r="M146" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N146" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="4" t="s">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A147" s="8" t="s">
         <v>388</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -7957,21 +8293,21 @@
       <c r="J147" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K147" s="4" t="s">
+      <c r="K147" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="L147" s="4" t="s">
+      <c r="L147" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M147" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N147" s="4" t="s">
+      <c r="M147" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N147" s="8" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="4" t="s">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A148" s="8" t="s">
         <v>388</v>
       </c>
       <c r="B148" s="4" t="s">
@@ -8007,15 +8343,15 @@
       <c r="L148" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M148" s="4" t="s">
+      <c r="M148" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N148" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="4" t="s">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A149" s="8" t="s">
         <v>388</v>
       </c>
       <c r="B149" s="4" t="s">
@@ -8051,15 +8387,15 @@
       <c r="L149" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M149" s="4" t="s">
+      <c r="M149" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N149" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="4" t="s">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A150" s="8" t="s">
         <v>388</v>
       </c>
       <c r="B150" s="4" t="s">
@@ -8095,15 +8431,15 @@
       <c r="L150" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M150" s="4" t="s">
+      <c r="M150" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N150" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="4" t="s">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A151" s="8" t="s">
         <v>388</v>
       </c>
       <c r="B151" s="4" t="s">
@@ -8139,15 +8475,15 @@
       <c r="L151" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M151" s="4" t="s">
+      <c r="M151" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N151" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="4" t="s">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A152" s="8" t="s">
         <v>388</v>
       </c>
       <c r="B152" s="4" t="s">
@@ -8177,21 +8513,21 @@
       <c r="J152" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K152" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L152" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M152" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N152" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="4" t="s">
+      <c r="K152" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L152" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M152" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N152" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A153" s="8" t="s">
         <v>388</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -8221,21 +8557,21 @@
       <c r="J153" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K153" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L153" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M153" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N153" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="4" t="s">
+      <c r="K153" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L153" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M153" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N153" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A154" s="8" t="s">
         <v>388</v>
       </c>
       <c r="B154" s="4" t="s">
@@ -8265,21 +8601,21 @@
       <c r="J154" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K154" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L154" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M154" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N154" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="5" t="s">
+      <c r="K154" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L154" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M154" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N154" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A155" s="9" t="s">
         <v>388</v>
       </c>
       <c r="B155" s="5" t="s">
@@ -8309,21 +8645,21 @@
       <c r="J155" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K155" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L155" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="M155" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N155" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="s">
+      <c r="K155" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L155" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M155" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N155" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A156" s="6" t="s">
         <v>403</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -8353,21 +8689,21 @@
       <c r="J156" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="K156" s="6" t="s">
         <v>195</v>
       </c>
       <c r="L156" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M156" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N156" s="2" t="s">
+      <c r="M156" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N156" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="s">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A157" s="6" t="s">
         <v>403</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -8397,21 +8733,21 @@
       <c r="J157" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K157" s="2" t="s">
+      <c r="K157" s="6" t="s">
         <v>195</v>
       </c>
       <c r="L157" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M157" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N157" s="2" t="s">
+      <c r="M157" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N157" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="s">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A158" s="6" t="s">
         <v>403</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -8441,21 +8777,21 @@
       <c r="J158" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="K158" s="2" t="s">
+      <c r="K158" s="6" t="s">
         <v>195</v>
       </c>
       <c r="L158" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="M158" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N158" s="2" t="s">
+      <c r="M158" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N158" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="s">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A159" s="6" t="s">
         <v>403</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -8485,21 +8821,21 @@
       <c r="J159" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="K159" s="2" t="s">
+      <c r="K159" s="6" t="s">
         <v>195</v>
       </c>
       <c r="L159" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="M159" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N159" s="2" t="s">
+      <c r="M159" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N159" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="s">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A160" s="6" t="s">
         <v>403</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -8529,21 +8865,21 @@
       <c r="J160" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="K160" s="2" t="s">
+      <c r="K160" s="6" t="s">
         <v>195</v>
       </c>
       <c r="L160" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="M160" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N160" s="2" t="s">
+      <c r="M160" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N160" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="s">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A161" s="6" t="s">
         <v>403</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -8573,21 +8909,21 @@
       <c r="J161" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K161" s="2" t="s">
+      <c r="K161" s="6" t="s">
         <v>195</v>
       </c>
       <c r="L161" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M161" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N161" s="2" t="s">
+      <c r="M161" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N161" s="6" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="s">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A162" s="6" t="s">
         <v>403</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -8617,21 +8953,21 @@
       <c r="J162" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K162" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L162" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M162" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N162" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="s">
+      <c r="K162" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L162" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M162" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N162" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A163" s="6" t="s">
         <v>403</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -8661,21 +8997,21 @@
       <c r="J163" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K163" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L163" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M163" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N163" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="s">
+      <c r="K163" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L163" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M163" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N163" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A164" s="6" t="s">
         <v>403</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -8711,15 +9047,15 @@
       <c r="L164" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N164" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="s">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A165" s="6" t="s">
         <v>403</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -8749,21 +9085,21 @@
       <c r="J165" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K165" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L165" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M165" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N165" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="3" t="s">
+      <c r="K165" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L165" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M165" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N165" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A166" s="7" t="s">
         <v>403</v>
       </c>
       <c r="B166" s="3" t="s">
@@ -8793,21 +9129,21 @@
       <c r="J166" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K166" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L166" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M166" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N166" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="4" t="s">
+      <c r="K166" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L166" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="M166" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N166" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A167" s="8" t="s">
         <v>424</v>
       </c>
       <c r="B167" s="4" t="s">
@@ -8837,21 +9173,21 @@
       <c r="J167" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="K167" s="4" t="s">
+      <c r="K167" s="8" t="s">
         <v>392</v>
       </c>
       <c r="L167" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="M167" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N167" s="4" t="s">
+      <c r="M167" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N167" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="4" t="s">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A168" s="8" t="s">
         <v>424</v>
       </c>
       <c r="B168" s="4" t="s">
@@ -8881,21 +9217,21 @@
       <c r="J168" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K168" s="4" t="s">
+      <c r="K168" s="8" t="s">
         <v>392</v>
       </c>
       <c r="L168" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M168" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N168" s="4" t="s">
+      <c r="M168" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N168" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="4" t="s">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A169" s="8" t="s">
         <v>424</v>
       </c>
       <c r="B169" s="4" t="s">
@@ -8925,21 +9261,21 @@
       <c r="J169" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="K169" s="4" t="s">
+      <c r="K169" s="8" t="s">
         <v>392</v>
       </c>
       <c r="L169" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="M169" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N169" s="4" t="s">
+      <c r="M169" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N169" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="4" t="s">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A170" s="8" t="s">
         <v>424</v>
       </c>
       <c r="B170" s="4" t="s">
@@ -8975,15 +9311,15 @@
       <c r="L170" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M170" s="4" t="s">
+      <c r="M170" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N170" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="4" t="s">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A171" s="8" t="s">
         <v>424</v>
       </c>
       <c r="B171" s="4" t="s">
@@ -9019,15 +9355,15 @@
       <c r="L171" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M171" s="4" t="s">
+      <c r="M171" s="8" t="s">
         <v>21</v>
       </c>
       <c r="N171" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="4" t="s">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A172" s="8" t="s">
         <v>424</v>
       </c>
       <c r="B172" s="4" t="s">
@@ -9057,21 +9393,21 @@
       <c r="J172" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K172" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L172" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M172" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N172" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="4" t="s">
+      <c r="K172" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L172" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M172" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N172" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A173" s="8" t="s">
         <v>424</v>
       </c>
       <c r="B173" s="4" t="s">
@@ -9101,21 +9437,21 @@
       <c r="J173" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K173" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L173" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M173" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N173" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="4" t="s">
+      <c r="K173" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L173" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M173" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N173" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A174" s="8" t="s">
         <v>424</v>
       </c>
       <c r="B174" s="4" t="s">
@@ -9145,21 +9481,21 @@
       <c r="J174" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K174" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L174" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M174" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N174" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="4" t="s">
+      <c r="K174" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L174" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M174" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N174" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A175" s="8" t="s">
         <v>424</v>
       </c>
       <c r="B175" s="4" t="s">
@@ -9189,21 +9525,21 @@
       <c r="J175" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="K175" s="4" t="s">
+      <c r="K175" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="L175" s="4" t="s">
+      <c r="L175" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="M175" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N175" s="4" t="s">
+      <c r="M175" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N175" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="4" t="s">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A176" s="8" t="s">
         <v>424</v>
       </c>
       <c r="B176" s="4" t="s">
@@ -9233,21 +9569,21 @@
       <c r="J176" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="K176" s="4" t="s">
+      <c r="K176" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="L176" s="4" t="s">
+      <c r="L176" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="M176" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="N176" s="4" t="s">
+      <c r="M176" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N176" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="5" t="s">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A177" s="9" t="s">
         <v>424</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -9277,21 +9613,21 @@
       <c r="J177" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K177" s="5" t="s">
+      <c r="K177" s="9" t="s">
         <v>392</v>
       </c>
       <c r="L177" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M177" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N177" s="5" t="s">
+      <c r="M177" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="N177" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="s">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A178" s="6" t="s">
         <v>442</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -9321,21 +9657,21 @@
       <c r="J178" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="K178" s="2" t="s">
+      <c r="K178" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L178" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M178" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N178" s="2" t="s">
+      <c r="M178" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N178" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="s">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A179" s="6" t="s">
         <v>442</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -9365,21 +9701,21 @@
       <c r="J179" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="K179" s="2" t="s">
+      <c r="K179" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L179" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M179" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N179" s="2" t="s">
+      <c r="M179" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N179" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="s">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A180" s="6" t="s">
         <v>442</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -9409,21 +9745,21 @@
       <c r="J180" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K180" s="2" t="s">
+      <c r="K180" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L180" s="2" t="s">
+      <c r="L180" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M180" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N180" s="2" t="s">
+      <c r="M180" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N180" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="s">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A181" s="6" t="s">
         <v>442</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -9453,21 +9789,21 @@
       <c r="J181" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K181" s="2" t="s">
+      <c r="K181" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L181" s="2" t="s">
+      <c r="L181" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M181" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N181" s="2" t="s">
+      <c r="M181" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N181" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="s">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A182" s="6" t="s">
         <v>442</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -9497,21 +9833,21 @@
       <c r="J182" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="K182" s="2" t="s">
+      <c r="K182" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L182" s="2" t="s">
+      <c r="L182" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="M182" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N182" s="2" t="s">
+      <c r="M182" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N182" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="s">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A183" s="6" t="s">
         <v>442</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -9541,21 +9877,21 @@
       <c r="J183" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="K183" s="2" t="s">
+      <c r="K183" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L183" s="2" t="s">
+      <c r="L183" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="M183" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N183" s="2" t="s">
+      <c r="M183" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N183" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="s">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A184" s="6" t="s">
         <v>442</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -9585,21 +9921,21 @@
       <c r="J184" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K184" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L184" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M184" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N184" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="s">
+      <c r="K184" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L184" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M184" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N184" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A185" s="6" t="s">
         <v>442</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -9629,21 +9965,21 @@
       <c r="J185" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K185" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L185" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M185" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N185" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="s">
+      <c r="K185" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L185" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="M185" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N185" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A186" s="6" t="s">
         <v>442</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -9679,15 +10015,15 @@
       <c r="L186" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N186" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="s">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A187" s="6" t="s">
         <v>442</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -9723,15 +10059,15 @@
       <c r="L187" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="6" t="s">
         <v>21</v>
       </c>
       <c r="N187" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="3" t="s">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A188" s="7" t="s">
         <v>442</v>
       </c>
       <c r="B188" s="3" t="s">
@@ -9767,7 +10103,7 @@
       <c r="L188" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M188" s="3" t="s">
+      <c r="M188" s="7" t="s">
         <v>21</v>
       </c>
       <c r="N188" s="3" t="s">
@@ -9775,22 +10111,123 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="A24:A34"/>
-    <mergeCell ref="A35:A45"/>
-    <mergeCell ref="A46:A56"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="A68:A78"/>
-    <mergeCell ref="A79:A89"/>
-    <mergeCell ref="A90:A100"/>
-    <mergeCell ref="A101:A111"/>
-    <mergeCell ref="A112:A122"/>
-    <mergeCell ref="A123:A133"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A145:A155"/>
-    <mergeCell ref="A156:A166"/>
+  <mergeCells count="147">
+    <mergeCell ref="N175:N177"/>
+    <mergeCell ref="N178:N183"/>
+    <mergeCell ref="N184:N185"/>
+    <mergeCell ref="N156:N161"/>
+    <mergeCell ref="N162:N163"/>
+    <mergeCell ref="N165:N166"/>
+    <mergeCell ref="N167:N169"/>
+    <mergeCell ref="N172:N174"/>
+    <mergeCell ref="N134:N138"/>
+    <mergeCell ref="N140:N141"/>
+    <mergeCell ref="N143:N144"/>
+    <mergeCell ref="N145:N147"/>
+    <mergeCell ref="N152:N155"/>
+    <mergeCell ref="N117:N118"/>
+    <mergeCell ref="N121:N122"/>
+    <mergeCell ref="N123:N126"/>
+    <mergeCell ref="N128:N130"/>
+    <mergeCell ref="N131:N133"/>
+    <mergeCell ref="N90:N96"/>
+    <mergeCell ref="N98:N100"/>
+    <mergeCell ref="N101:N109"/>
+    <mergeCell ref="N110:N111"/>
+    <mergeCell ref="N112:N115"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="N68:N78"/>
+    <mergeCell ref="N79:N86"/>
+    <mergeCell ref="N88:N89"/>
+    <mergeCell ref="M145:M155"/>
+    <mergeCell ref="M156:M166"/>
+    <mergeCell ref="M167:M177"/>
+    <mergeCell ref="M178:M188"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N13:N20"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="N24:N32"/>
+    <mergeCell ref="N33:N34"/>
+    <mergeCell ref="N35:N43"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="N46:N53"/>
+    <mergeCell ref="N57:N62"/>
+    <mergeCell ref="L180:L181"/>
+    <mergeCell ref="L182:L183"/>
+    <mergeCell ref="L184:L185"/>
+    <mergeCell ref="M2:M12"/>
+    <mergeCell ref="M13:M23"/>
+    <mergeCell ref="M24:M34"/>
+    <mergeCell ref="M35:M45"/>
+    <mergeCell ref="M46:M56"/>
+    <mergeCell ref="M57:M67"/>
+    <mergeCell ref="M68:M78"/>
+    <mergeCell ref="M79:M89"/>
+    <mergeCell ref="M90:M100"/>
+    <mergeCell ref="M101:M111"/>
+    <mergeCell ref="M112:M122"/>
+    <mergeCell ref="M123:M133"/>
+    <mergeCell ref="M134:M144"/>
+    <mergeCell ref="L152:L155"/>
+    <mergeCell ref="L162:L163"/>
+    <mergeCell ref="L165:L166"/>
+    <mergeCell ref="L172:L174"/>
+    <mergeCell ref="L175:L176"/>
+    <mergeCell ref="L123:L125"/>
+    <mergeCell ref="L131:L133"/>
+    <mergeCell ref="L137:L138"/>
+    <mergeCell ref="L143:L144"/>
+    <mergeCell ref="L146:L147"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="L110:L111"/>
+    <mergeCell ref="L113:L115"/>
+    <mergeCell ref="L121:L122"/>
+    <mergeCell ref="K184:K185"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="L59:L62"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="L81:L86"/>
+    <mergeCell ref="L92:L96"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="K165:K166"/>
+    <mergeCell ref="K167:K169"/>
+    <mergeCell ref="K172:K174"/>
+    <mergeCell ref="K175:K177"/>
+    <mergeCell ref="K178:K183"/>
+    <mergeCell ref="K143:K144"/>
+    <mergeCell ref="K145:K147"/>
+    <mergeCell ref="K152:K155"/>
+    <mergeCell ref="K156:K161"/>
+    <mergeCell ref="K162:K163"/>
+    <mergeCell ref="K123:K126"/>
+    <mergeCell ref="K128:K130"/>
+    <mergeCell ref="K131:K133"/>
+    <mergeCell ref="K134:K138"/>
+    <mergeCell ref="K140:K141"/>
+    <mergeCell ref="K101:K109"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="K112:K115"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="K68:K78"/>
+    <mergeCell ref="K79:K86"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="K90:K96"/>
+    <mergeCell ref="K98:K100"/>
     <mergeCell ref="A167:A177"/>
     <mergeCell ref="A178:A188"/>
     <mergeCell ref="K2:K4"/>
@@ -9807,123 +10244,22 @@
     <mergeCell ref="K57:K62"/>
     <mergeCell ref="K64:K65"/>
     <mergeCell ref="K66:K67"/>
-    <mergeCell ref="K68:K78"/>
-    <mergeCell ref="K79:K86"/>
-    <mergeCell ref="K88:K89"/>
-    <mergeCell ref="K90:K96"/>
-    <mergeCell ref="K98:K100"/>
-    <mergeCell ref="K101:K109"/>
-    <mergeCell ref="K110:K111"/>
-    <mergeCell ref="K112:K115"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="K123:K126"/>
-    <mergeCell ref="K128:K130"/>
-    <mergeCell ref="K131:K133"/>
-    <mergeCell ref="K134:K138"/>
-    <mergeCell ref="K140:K141"/>
-    <mergeCell ref="K143:K144"/>
-    <mergeCell ref="K145:K147"/>
-    <mergeCell ref="K152:K155"/>
-    <mergeCell ref="K156:K161"/>
-    <mergeCell ref="K162:K163"/>
-    <mergeCell ref="K165:K166"/>
-    <mergeCell ref="K167:K169"/>
-    <mergeCell ref="K172:K174"/>
-    <mergeCell ref="K175:K177"/>
-    <mergeCell ref="K178:K183"/>
-    <mergeCell ref="K184:K185"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="L59:L62"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="L81:L86"/>
-    <mergeCell ref="L92:L96"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="L107:L108"/>
-    <mergeCell ref="L110:L111"/>
-    <mergeCell ref="L113:L115"/>
-    <mergeCell ref="L121:L122"/>
-    <mergeCell ref="L123:L125"/>
-    <mergeCell ref="L131:L133"/>
-    <mergeCell ref="L137:L138"/>
-    <mergeCell ref="L143:L144"/>
-    <mergeCell ref="L146:L147"/>
-    <mergeCell ref="L152:L155"/>
-    <mergeCell ref="L162:L163"/>
-    <mergeCell ref="L165:L166"/>
-    <mergeCell ref="L172:L174"/>
-    <mergeCell ref="L175:L176"/>
-    <mergeCell ref="L180:L181"/>
-    <mergeCell ref="L182:L183"/>
-    <mergeCell ref="L184:L185"/>
-    <mergeCell ref="M2:M12"/>
-    <mergeCell ref="M13:M23"/>
-    <mergeCell ref="M24:M34"/>
-    <mergeCell ref="M35:M45"/>
-    <mergeCell ref="M46:M56"/>
-    <mergeCell ref="M57:M67"/>
-    <mergeCell ref="M68:M78"/>
-    <mergeCell ref="M79:M89"/>
-    <mergeCell ref="M90:M100"/>
-    <mergeCell ref="M101:M111"/>
-    <mergeCell ref="M112:M122"/>
-    <mergeCell ref="M123:M133"/>
-    <mergeCell ref="M134:M144"/>
-    <mergeCell ref="M145:M155"/>
-    <mergeCell ref="M156:M166"/>
-    <mergeCell ref="M167:M177"/>
-    <mergeCell ref="M178:M188"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="N9:N10"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N13:N20"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="N24:N32"/>
-    <mergeCell ref="N33:N34"/>
-    <mergeCell ref="N35:N43"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="N46:N53"/>
-    <mergeCell ref="N57:N62"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="N68:N78"/>
-    <mergeCell ref="N79:N86"/>
-    <mergeCell ref="N88:N89"/>
-    <mergeCell ref="N90:N96"/>
-    <mergeCell ref="N98:N100"/>
-    <mergeCell ref="N101:N109"/>
-    <mergeCell ref="N110:N111"/>
-    <mergeCell ref="N112:N115"/>
-    <mergeCell ref="N117:N118"/>
-    <mergeCell ref="N121:N122"/>
-    <mergeCell ref="N123:N126"/>
-    <mergeCell ref="N128:N130"/>
-    <mergeCell ref="N131:N133"/>
-    <mergeCell ref="N134:N138"/>
-    <mergeCell ref="N140:N141"/>
-    <mergeCell ref="N143:N144"/>
-    <mergeCell ref="N145:N147"/>
-    <mergeCell ref="N152:N155"/>
-    <mergeCell ref="N156:N161"/>
-    <mergeCell ref="N162:N163"/>
-    <mergeCell ref="N165:N166"/>
-    <mergeCell ref="N167:N169"/>
-    <mergeCell ref="N172:N174"/>
-    <mergeCell ref="N175:N177"/>
-    <mergeCell ref="N178:N183"/>
-    <mergeCell ref="N184:N185"/>
+    <mergeCell ref="A112:A122"/>
+    <mergeCell ref="A123:A133"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A145:A155"/>
+    <mergeCell ref="A156:A166"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="A68:A78"/>
+    <mergeCell ref="A79:A89"/>
+    <mergeCell ref="A90:A100"/>
+    <mergeCell ref="A101:A111"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="A46:A56"/>
   </mergeCells>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/fesch/output/output_001.xlsx
+++ b/fesch/output/output_001.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Munka\bme\onlab\fesch\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A51EFD5-42E7-4DE2-86FE-40CCB1E0DD52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView/>
   </bookViews>
   <sheets>
     <sheet name="1. kör" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="459">
   <si>
     <t>Összesítő</t>
   </si>
@@ -1402,8 +1394,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1423,7 +1416,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
+        <fgColor rgb="FFCCFFCC" tint="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -1439,406 +1432,77 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:N188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" customWidth="1"/>
-    <col min="8" max="8" width="82.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="36.44140625" customWidth="1"/>
-    <col min="11" max="11" width="17.109375" customWidth="1"/>
-    <col min="12" max="12" width="22.5546875" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" customWidth="1"/>
-    <col min="14" max="14" width="21" customWidth="1"/>
+    <col min="1" max="1" width="12.327130317688" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.7038021087646" customWidth="1"/>
+    <col min="5" max="5" width="10.1682767868042" customWidth="1"/>
+    <col min="6" max="6" width="13.8010873794556" customWidth="1"/>
+    <col min="7" max="7" width="25.4578037261963" customWidth="1"/>
+    <col min="8" max="8" width="82.8629989624023" customWidth="1"/>
+    <col min="9" max="9" width="10.6799945831299" customWidth="1"/>
+    <col min="10" max="10" width="36.4618911743164" customWidth="1"/>
+    <col min="11" max="11" width="17.1054973602295" customWidth="1"/>
+    <col min="12" max="12" width="22.5297889709473" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="21.0442981719971" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1882,8 +1546,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1913,21 +1577,21 @@
       <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1957,21 +1621,21 @@
       <c r="J3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="6" t="s">
+      <c r="M3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2001,21 +1665,21 @@
       <c r="J4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="6" t="s">
+      <c r="M4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2045,21 +1709,21 @@
       <c r="J5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2089,21 +1753,21 @@
       <c r="J6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2139,15 +1803,15 @@
       <c r="L7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="6" t="s">
+      <c r="M7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2183,15 +1847,15 @@
       <c r="L8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N8" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2221,21 +1885,21 @@
       <c r="J9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="6" t="s">
+      <c r="M9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2265,21 +1929,21 @@
       <c r="J10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="6" t="s">
+      <c r="M10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2309,21 +1973,21 @@
       <c r="J11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="K11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2353,21 +2017,21 @@
       <c r="J12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="K12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2397,21 +2061,21 @@
       <c r="J13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="8" t="s">
+      <c r="M13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="14">
+      <c r="A14" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2441,21 +2105,21 @@
       <c r="J14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="8" t="s">
+      <c r="M14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+    <row r="15">
+      <c r="A15" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2485,21 +2149,21 @@
       <c r="J15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="8" t="s">
+      <c r="M15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="16">
+      <c r="A16" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2529,21 +2193,21 @@
       <c r="J16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="4" t="s">
         <v>69</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="8" t="s">
+      <c r="M16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+    <row r="17">
+      <c r="A17" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2573,21 +2237,21 @@
       <c r="J17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="8" t="s">
+      <c r="M17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+    <row r="18">
+      <c r="A18" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2617,21 +2281,21 @@
       <c r="J18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="8" t="s">
+      <c r="M18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+    <row r="19">
+      <c r="A19" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2661,21 +2325,21 @@
       <c r="J19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="8" t="s">
+      <c r="M19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+    <row r="20">
+      <c r="A20" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2705,21 +2369,21 @@
       <c r="J20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="4" t="s">
         <v>69</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="8" t="s">
+      <c r="M20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+    <row r="21">
+      <c r="A21" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2755,15 +2419,15 @@
       <c r="L21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M21" s="8" t="s">
+      <c r="M21" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+    <row r="22">
+      <c r="A22" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2793,21 +2457,21 @@
       <c r="J22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="4" t="s">
         <v>69</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="8" t="s">
+      <c r="M22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+    <row r="23">
+      <c r="A23" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2837,21 +2501,21 @@
       <c r="J23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="5" t="s">
         <v>69</v>
       </c>
       <c r="L23" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M23" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="9" t="s">
+      <c r="M23" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+    <row r="24">
+      <c r="A24" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2881,21 +2545,21 @@
       <c r="J24" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="2" t="s">
         <v>110</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="6" t="s">
+      <c r="M24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+    <row r="25">
+      <c r="A25" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2925,21 +2589,21 @@
       <c r="J25" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="2" t="s">
         <v>110</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="6" t="s">
+      <c r="M25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+    <row r="26">
+      <c r="A26" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2969,21 +2633,21 @@
       <c r="J26" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="K26" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="L26" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="6" t="s">
+      <c r="M26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+    <row r="27">
+      <c r="A27" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3013,21 +2677,21 @@
       <c r="J27" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="L27" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="6" t="s">
+      <c r="M27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+    <row r="28">
+      <c r="A28" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3057,21 +2721,21 @@
       <c r="J28" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="6" t="s">
+      <c r="M28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+    <row r="29">
+      <c r="A29" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3101,21 +2765,21 @@
       <c r="J29" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="2" t="s">
         <v>110</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="6" t="s">
+      <c r="M29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+    <row r="30">
+      <c r="A30" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3145,21 +2809,21 @@
       <c r="J30" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="2" t="s">
         <v>110</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="M30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="6" t="s">
+      <c r="M30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+    <row r="31">
+      <c r="A31" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3189,21 +2853,21 @@
       <c r="J31" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="2" t="s">
         <v>110</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="6" t="s">
+      <c r="M31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+    <row r="32">
+      <c r="A32" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3233,21 +2897,21 @@
       <c r="J32" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K32" s="2" t="s">
         <v>110</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="6" t="s">
+      <c r="M32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+    <row r="33">
+      <c r="A33" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3277,21 +2941,21 @@
       <c r="J33" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K33" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L33" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M33" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+      <c r="K33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -3321,21 +2985,21 @@
       <c r="J34" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+      <c r="K34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -3365,21 +3029,21 @@
       <c r="J35" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="4" t="s">
         <v>69</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="8" t="s">
+      <c r="M35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+    <row r="36">
+      <c r="A36" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3409,21 +3073,21 @@
       <c r="J36" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="K36" s="4" t="s">
         <v>69</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" s="8" t="s">
+      <c r="M36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+    <row r="37">
+      <c r="A37" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -3453,21 +3117,21 @@
       <c r="J37" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="4" t="s">
         <v>69</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N37" s="8" t="s">
+      <c r="M37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+    <row r="38">
+      <c r="A38" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -3497,21 +3161,21 @@
       <c r="J38" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="K38" s="4" t="s">
         <v>69</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="M38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N38" s="8" t="s">
+      <c r="M38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+    <row r="39">
+      <c r="A39" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -3541,21 +3205,21 @@
       <c r="J39" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K39" s="4" t="s">
         <v>69</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N39" s="8" t="s">
+      <c r="M39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+    <row r="40">
+      <c r="A40" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -3585,21 +3249,21 @@
       <c r="J40" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K40" s="8" t="s">
+      <c r="K40" s="4" t="s">
         <v>69</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M40" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N40" s="8" t="s">
+      <c r="M40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+    <row r="41">
+      <c r="A41" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3629,21 +3293,21 @@
       <c r="J41" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="K41" s="8" t="s">
+      <c r="K41" s="4" t="s">
         <v>69</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="M41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N41" s="8" t="s">
+      <c r="M41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+    <row r="42">
+      <c r="A42" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -3673,21 +3337,21 @@
       <c r="J42" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K42" s="8" t="s">
+      <c r="K42" s="4" t="s">
         <v>69</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M42" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N42" s="8" t="s">
+      <c r="M42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+    <row r="43">
+      <c r="A43" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -3717,21 +3381,21 @@
       <c r="J43" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="4" t="s">
         <v>69</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M43" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N43" s="8" t="s">
+      <c r="M43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+    <row r="44">
+      <c r="A44" s="4" t="s">
         <v>148</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -3761,21 +3425,21 @@
       <c r="J44" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K44" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L44" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M44" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
+      <c r="K44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="s">
         <v>148</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -3805,21 +3469,21 @@
       <c r="J45" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K45" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L45" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M45" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N45" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+      <c r="K45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3849,21 +3513,21 @@
       <c r="J46" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K46" s="6" t="s">
+      <c r="K46" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M46" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N46" s="6" t="s">
+      <c r="M46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+    <row r="47">
+      <c r="A47" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3893,21 +3557,21 @@
       <c r="J47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K47" s="6" t="s">
+      <c r="K47" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M47" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N47" s="6" t="s">
+      <c r="M47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+    <row r="48">
+      <c r="A48" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3937,21 +3601,21 @@
       <c r="J48" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K48" s="6" t="s">
+      <c r="K48" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M48" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N48" s="6" t="s">
+      <c r="M48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N48" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+    <row r="49">
+      <c r="A49" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3981,21 +3645,21 @@
       <c r="J49" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K49" s="6" t="s">
+      <c r="K49" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M49" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N49" s="6" t="s">
+      <c r="M49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+    <row r="50">
+      <c r="A50" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -4025,21 +3689,21 @@
       <c r="J50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K50" s="6" t="s">
+      <c r="K50" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M50" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N50" s="6" t="s">
+      <c r="M50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+    <row r="51">
+      <c r="A51" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -4069,21 +3733,21 @@
       <c r="J51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K51" s="6" t="s">
+      <c r="K51" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L51" s="6" t="s">
+      <c r="L51" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M51" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N51" s="6" t="s">
+      <c r="M51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+    <row r="52">
+      <c r="A52" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -4113,21 +3777,21 @@
       <c r="J52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K52" s="6" t="s">
+      <c r="K52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L52" s="6" t="s">
+      <c r="L52" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M52" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N52" s="6" t="s">
+      <c r="M52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+    <row r="53">
+      <c r="A53" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -4157,21 +3821,21 @@
       <c r="J53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K53" s="6" t="s">
+      <c r="K53" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L53" s="6" t="s">
+      <c r="L53" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M53" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N53" s="6" t="s">
+      <c r="M53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N53" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+    <row r="54">
+      <c r="A54" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -4207,15 +3871,15 @@
       <c r="L54" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M54" s="6" t="s">
+      <c r="M54" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N54" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
+    <row r="55">
+      <c r="A55" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -4251,15 +3915,15 @@
       <c r="L55" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M55" s="6" t="s">
+      <c r="M55" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N55" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
+    <row r="56">
+      <c r="A56" s="3" t="s">
         <v>183</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -4295,15 +3959,15 @@
       <c r="L56" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M56" s="7" t="s">
+      <c r="M56" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
+    <row r="57">
+      <c r="A57" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -4333,21 +3997,21 @@
       <c r="J57" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K57" s="8" t="s">
+      <c r="K57" s="4" t="s">
         <v>95</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M57" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N57" s="8" t="s">
+      <c r="M57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
+    <row r="58">
+      <c r="A58" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -4377,21 +4041,21 @@
       <c r="J58" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="K58" s="8" t="s">
+      <c r="K58" s="4" t="s">
         <v>95</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M58" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N58" s="8" t="s">
+      <c r="M58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N58" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
+    <row r="59">
+      <c r="A59" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -4421,21 +4085,21 @@
       <c r="J59" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K59" s="8" t="s">
+      <c r="K59" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L59" s="8" t="s">
+      <c r="L59" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M59" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N59" s="8" t="s">
+      <c r="M59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
+    <row r="60">
+      <c r="A60" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -4465,21 +4129,21 @@
       <c r="J60" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K60" s="8" t="s">
+      <c r="K60" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L60" s="8" t="s">
+      <c r="L60" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M60" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N60" s="8" t="s">
+      <c r="M60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
+    <row r="61">
+      <c r="A61" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -4509,21 +4173,21 @@
       <c r="J61" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K61" s="8" t="s">
+      <c r="K61" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L61" s="8" t="s">
+      <c r="L61" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M61" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N61" s="8" t="s">
+      <c r="M61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
+    <row r="62">
+      <c r="A62" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -4553,21 +4217,21 @@
       <c r="J62" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K62" s="8" t="s">
+      <c r="K62" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="L62" s="8" t="s">
+      <c r="L62" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M62" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N62" s="8" t="s">
+      <c r="M62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
+    <row r="63">
+      <c r="A63" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -4603,15 +4267,15 @@
       <c r="L63" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M63" s="8" t="s">
+      <c r="M63" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
+    <row r="64">
+      <c r="A64" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -4641,21 +4305,21 @@
       <c r="J64" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K64" s="8" t="s">
+      <c r="K64" s="4" t="s">
         <v>95</v>
       </c>
       <c r="L64" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M64" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N64" s="8" t="s">
+      <c r="M64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
+    <row r="65">
+      <c r="A65" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -4685,21 +4349,21 @@
       <c r="J65" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="K65" s="8" t="s">
+      <c r="K65" s="4" t="s">
         <v>95</v>
       </c>
       <c r="L65" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M65" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N65" s="8" t="s">
+      <c r="M65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
+    <row r="66">
+      <c r="A66" s="4" t="s">
         <v>204</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -4729,21 +4393,21 @@
       <c r="J66" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K66" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L66" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M66" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N66" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
+      <c r="K66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="s">
         <v>204</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -4773,21 +4437,21 @@
       <c r="J67" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K67" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N67" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+      <c r="K67" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -4817,21 +4481,21 @@
       <c r="J68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K68" s="6" t="s">
+      <c r="K68" s="2" t="s">
         <v>110</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M68" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N68" s="6" t="s">
+      <c r="M68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N68" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+    <row r="69">
+      <c r="A69" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -4861,21 +4525,21 @@
       <c r="J69" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K69" s="6" t="s">
+      <c r="K69" s="2" t="s">
         <v>110</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M69" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N69" s="6" t="s">
+      <c r="M69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N69" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
+    <row r="70">
+      <c r="A70" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -4905,21 +4569,21 @@
       <c r="J70" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K70" s="6" t="s">
+      <c r="K70" s="2" t="s">
         <v>110</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M70" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N70" s="6" t="s">
+      <c r="M70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N70" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
+    <row r="71">
+      <c r="A71" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -4949,21 +4613,21 @@
       <c r="J71" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K71" s="6" t="s">
+      <c r="K71" s="2" t="s">
         <v>110</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M71" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N71" s="6" t="s">
+      <c r="M71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N71" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+    <row r="72">
+      <c r="A72" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -4993,21 +4657,21 @@
       <c r="J72" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K72" s="6" t="s">
+      <c r="K72" s="2" t="s">
         <v>110</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M72" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N72" s="6" t="s">
+      <c r="M72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N72" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+    <row r="73">
+      <c r="A73" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -5037,21 +4701,21 @@
       <c r="J73" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K73" s="6" t="s">
+      <c r="K73" s="2" t="s">
         <v>110</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M73" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N73" s="6" t="s">
+      <c r="M73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N73" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
+    <row r="74">
+      <c r="A74" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -5081,21 +4745,21 @@
       <c r="J74" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K74" s="6" t="s">
+      <c r="K74" s="2" t="s">
         <v>110</v>
       </c>
       <c r="L74" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M74" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N74" s="6" t="s">
+      <c r="M74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
+    <row r="75">
+      <c r="A75" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -5125,21 +4789,21 @@
       <c r="J75" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K75" s="6" t="s">
+      <c r="K75" s="2" t="s">
         <v>110</v>
       </c>
       <c r="L75" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M75" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N75" s="6" t="s">
+      <c r="M75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+    <row r="76">
+      <c r="A76" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -5169,21 +4833,21 @@
       <c r="J76" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K76" s="6" t="s">
+      <c r="K76" s="2" t="s">
         <v>110</v>
       </c>
       <c r="L76" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M76" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N76" s="6" t="s">
+      <c r="M76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N76" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+    <row r="77">
+      <c r="A77" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -5213,21 +4877,21 @@
       <c r="J77" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K77" s="6" t="s">
+      <c r="K77" s="2" t="s">
         <v>110</v>
       </c>
       <c r="L77" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M77" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N77" s="6" t="s">
+      <c r="M77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N77" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="7" t="s">
+    <row r="78">
+      <c r="A78" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -5257,21 +4921,21 @@
       <c r="J78" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K78" s="7" t="s">
+      <c r="K78" s="3" t="s">
         <v>110</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M78" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N78" s="7" t="s">
+      <c r="M78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N78" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
+    <row r="79">
+      <c r="A79" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -5301,21 +4965,21 @@
       <c r="J79" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K79" s="8" t="s">
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M79" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N79" s="8" t="s">
+      <c r="M79" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N79" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="s">
+    <row r="80">
+      <c r="A80" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -5345,21 +5009,21 @@
       <c r="J80" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K80" s="8" t="s">
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="M80" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N80" s="8" t="s">
+      <c r="M80" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N80" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="s">
+    <row r="81">
+      <c r="A81" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -5389,21 +5053,21 @@
       <c r="J81" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K81" s="8" t="s">
+      <c r="K81" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L81" s="8" t="s">
+      <c r="L81" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M81" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N81" s="8" t="s">
+      <c r="M81" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N81" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="8" t="s">
+    <row r="82">
+      <c r="A82" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B82" s="4" t="s">
@@ -5433,21 +5097,21 @@
       <c r="J82" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K82" s="8" t="s">
+      <c r="K82" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L82" s="8" t="s">
+      <c r="L82" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M82" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N82" s="8" t="s">
+      <c r="M82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N82" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="8" t="s">
+    <row r="83">
+      <c r="A83" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -5477,21 +5141,21 @@
       <c r="J83" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K83" s="8" t="s">
+      <c r="K83" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L83" s="8" t="s">
+      <c r="L83" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M83" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N83" s="8" t="s">
+      <c r="M83" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N83" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
+    <row r="84">
+      <c r="A84" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B84" s="4" t="s">
@@ -5521,21 +5185,21 @@
       <c r="J84" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K84" s="8" t="s">
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L84" s="8" t="s">
+      <c r="L84" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M84" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N84" s="8" t="s">
+      <c r="M84" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N84" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="8" t="s">
+    <row r="85">
+      <c r="A85" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -5565,21 +5229,21 @@
       <c r="J85" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K85" s="8" t="s">
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L85" s="8" t="s">
+      <c r="L85" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M85" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N85" s="8" t="s">
+      <c r="M85" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N85" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="8" t="s">
+    <row r="86">
+      <c r="A86" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -5609,21 +5273,21 @@
       <c r="J86" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K86" s="8" t="s">
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L86" s="8" t="s">
+      <c r="L86" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M86" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N86" s="8" t="s">
+      <c r="M86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N86" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="s">
+    <row r="87">
+      <c r="A87" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B87" s="4" t="s">
@@ -5659,15 +5323,15 @@
       <c r="L87" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M87" s="8" t="s">
+      <c r="M87" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N87" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="8" t="s">
+    <row r="88">
+      <c r="A88" s="4" t="s">
         <v>258</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -5697,21 +5361,21 @@
       <c r="J88" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="K88" s="8" t="s">
+      <c r="K88" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L88" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M88" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N88" s="8" t="s">
+      <c r="M88" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N88" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="9" t="s">
+    <row r="89">
+      <c r="A89" s="5" t="s">
         <v>258</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -5741,21 +5405,21 @@
       <c r="J89" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="K89" s="9" t="s">
+      <c r="K89" s="5" t="s">
         <v>24</v>
       </c>
       <c r="L89" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="M89" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N89" s="9" t="s">
+      <c r="M89" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N89" s="5" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
+    <row r="90">
+      <c r="A90" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -5785,21 +5449,21 @@
       <c r="J90" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K90" s="6" t="s">
+      <c r="K90" s="2" t="s">
         <v>73</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M90" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N90" s="6" t="s">
+      <c r="M90" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N90" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
+    <row r="91">
+      <c r="A91" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -5829,21 +5493,21 @@
       <c r="J91" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K91" s="6" t="s">
+      <c r="K91" s="2" t="s">
         <v>73</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M91" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N91" s="6" t="s">
+      <c r="M91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N91" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
+    <row r="92">
+      <c r="A92" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -5873,21 +5537,21 @@
       <c r="J92" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K92" s="6" t="s">
+      <c r="K92" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L92" s="6" t="s">
+      <c r="L92" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M92" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N92" s="6" t="s">
+      <c r="M92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N92" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
+    <row r="93">
+      <c r="A93" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -5917,21 +5581,21 @@
       <c r="J93" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K93" s="6" t="s">
+      <c r="K93" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L93" s="6" t="s">
+      <c r="L93" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M93" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N93" s="6" t="s">
+      <c r="M93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N93" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
+    <row r="94">
+      <c r="A94" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -5961,21 +5625,21 @@
       <c r="J94" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K94" s="6" t="s">
+      <c r="K94" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L94" s="6" t="s">
+      <c r="L94" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M94" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N94" s="6" t="s">
+      <c r="M94" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N94" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
+    <row r="95">
+      <c r="A95" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -6005,21 +5669,21 @@
       <c r="J95" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K95" s="6" t="s">
+      <c r="K95" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L95" s="6" t="s">
+      <c r="L95" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M95" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N95" s="6" t="s">
+      <c r="M95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N95" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
+    <row r="96">
+      <c r="A96" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -6049,21 +5713,21 @@
       <c r="J96" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K96" s="6" t="s">
+      <c r="K96" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L96" s="6" t="s">
+      <c r="L96" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M96" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N96" s="6" t="s">
+      <c r="M96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N96" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
+    <row r="97">
+      <c r="A97" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -6099,15 +5763,15 @@
       <c r="L97" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M97" s="6" t="s">
+      <c r="M97" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N97" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
+    <row r="98">
+      <c r="A98" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -6137,21 +5801,21 @@
       <c r="J98" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K98" s="6" t="s">
+      <c r="K98" s="2" t="s">
         <v>73</v>
       </c>
       <c r="L98" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M98" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N98" s="6" t="s">
+      <c r="M98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N98" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
+    <row r="99">
+      <c r="A99" s="2" t="s">
         <v>283</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -6181,21 +5845,21 @@
       <c r="J99" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K99" s="6" t="s">
+      <c r="K99" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L99" s="6" t="s">
+      <c r="L99" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M99" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N99" s="6" t="s">
+      <c r="M99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N99" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="7" t="s">
+    <row r="100">
+      <c r="A100" s="3" t="s">
         <v>283</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -6225,21 +5889,21 @@
       <c r="J100" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K100" s="7" t="s">
+      <c r="K100" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="L100" s="7" t="s">
+      <c r="L100" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M100" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N100" s="7" t="s">
+      <c r="M100" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N100" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="8" t="s">
+    <row r="101">
+      <c r="A101" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -6269,21 +5933,21 @@
       <c r="J101" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K101" s="8" t="s">
+      <c r="K101" s="4" t="s">
         <v>172</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M101" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N101" s="8" t="s">
+      <c r="M101" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N101" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102" s="8" t="s">
+    <row r="102">
+      <c r="A102" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B102" s="4" t="s">
@@ -6313,21 +5977,21 @@
       <c r="J102" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K102" s="8" t="s">
+      <c r="K102" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="L102" s="8" t="s">
+      <c r="L102" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M102" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N102" s="8" t="s">
+      <c r="M102" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N102" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="8" t="s">
+    <row r="103">
+      <c r="A103" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B103" s="4" t="s">
@@ -6357,21 +6021,21 @@
       <c r="J103" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K103" s="8" t="s">
+      <c r="K103" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="L103" s="8" t="s">
+      <c r="L103" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M103" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N103" s="8" t="s">
+      <c r="M103" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N103" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="8" t="s">
+    <row r="104">
+      <c r="A104" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -6401,21 +6065,21 @@
       <c r="J104" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K104" s="8" t="s">
+      <c r="K104" s="4" t="s">
         <v>172</v>
       </c>
       <c r="L104" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M104" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N104" s="8" t="s">
+      <c r="M104" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N104" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" s="8" t="s">
+    <row r="105">
+      <c r="A105" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B105" s="4" t="s">
@@ -6445,21 +6109,21 @@
       <c r="J105" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="K105" s="8" t="s">
+      <c r="K105" s="4" t="s">
         <v>172</v>
       </c>
       <c r="L105" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M105" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N105" s="8" t="s">
+      <c r="M105" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N105" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="8" t="s">
+    <row r="106">
+      <c r="A106" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -6489,21 +6153,21 @@
       <c r="J106" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="K106" s="8" t="s">
+      <c r="K106" s="4" t="s">
         <v>172</v>
       </c>
       <c r="L106" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="M106" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N106" s="8" t="s">
+      <c r="M106" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N106" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" s="8" t="s">
+    <row r="107">
+      <c r="A107" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -6533,21 +6197,21 @@
       <c r="J107" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K107" s="8" t="s">
+      <c r="K107" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="L107" s="8" t="s">
+      <c r="L107" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M107" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N107" s="8" t="s">
+      <c r="M107" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N107" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="8" t="s">
+    <row r="108">
+      <c r="A108" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B108" s="4" t="s">
@@ -6577,21 +6241,21 @@
       <c r="J108" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K108" s="8" t="s">
+      <c r="K108" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="L108" s="8" t="s">
+      <c r="L108" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="M108" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N108" s="8" t="s">
+      <c r="M108" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N108" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="8" t="s">
+    <row r="109">
+      <c r="A109" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B109" s="4" t="s">
@@ -6621,21 +6285,21 @@
       <c r="J109" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="K109" s="8" t="s">
+      <c r="K109" s="4" t="s">
         <v>172</v>
       </c>
       <c r="L109" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M109" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N109" s="8" t="s">
+      <c r="M109" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N109" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A110" s="8" t="s">
+    <row r="110">
+      <c r="A110" s="4" t="s">
         <v>306</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -6665,21 +6329,21 @@
       <c r="J110" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K110" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L110" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M110" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N110" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="9" t="s">
+      <c r="K110" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M110" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="s">
         <v>306</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -6709,21 +6373,21 @@
       <c r="J111" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K111" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L111" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M111" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N111" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
+      <c r="K111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N111" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -6753,21 +6417,21 @@
       <c r="J112" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K112" s="6" t="s">
+      <c r="K112" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M112" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N112" s="6" t="s">
+      <c r="M112" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N112" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
+    <row r="113">
+      <c r="A113" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -6797,21 +6461,21 @@
       <c r="J113" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="K113" s="6" t="s">
+      <c r="K113" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L113" s="6" t="s">
+      <c r="L113" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M113" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N113" s="6" t="s">
+      <c r="M113" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N113" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
+    <row r="114">
+      <c r="A114" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -6841,21 +6505,21 @@
       <c r="J114" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="K114" s="6" t="s">
+      <c r="K114" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L114" s="6" t="s">
+      <c r="L114" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M114" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N114" s="6" t="s">
+      <c r="M114" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N114" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="6" t="s">
+    <row r="115">
+      <c r="A115" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -6885,21 +6549,21 @@
       <c r="J115" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K115" s="6" t="s">
+      <c r="K115" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L115" s="6" t="s">
+      <c r="L115" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M115" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N115" s="6" t="s">
+      <c r="M115" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N115" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
+    <row r="116">
+      <c r="A116" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -6935,15 +6599,15 @@
       <c r="L116" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M116" s="6" t="s">
+      <c r="M116" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N116" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="6" t="s">
+    <row r="117">
+      <c r="A117" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -6973,21 +6637,21 @@
       <c r="J117" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K117" s="6" t="s">
+      <c r="K117" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L117" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M117" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N117" s="6" t="s">
+      <c r="M117" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N117" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="6" t="s">
+    <row r="118">
+      <c r="A118" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -7017,21 +6681,21 @@
       <c r="J118" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K118" s="6" t="s">
+      <c r="K118" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L118" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M118" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N118" s="6" t="s">
+      <c r="M118" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N118" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
+    <row r="119">
+      <c r="A119" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -7067,15 +6731,15 @@
       <c r="L119" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M119" s="6" t="s">
+      <c r="M119" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N119" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A120" s="6" t="s">
+    <row r="120">
+      <c r="A120" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -7111,15 +6775,15 @@
       <c r="L120" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M120" s="6" t="s">
+      <c r="M120" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N120" s="2" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="6" t="s">
+    <row r="121">
+      <c r="A121" s="2" t="s">
         <v>329</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -7149,21 +6813,21 @@
       <c r="J121" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K121" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L121" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M121" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N121" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="7" t="s">
+      <c r="K121" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="s">
         <v>329</v>
       </c>
       <c r="B122" s="3" t="s">
@@ -7193,21 +6857,21 @@
       <c r="J122" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K122" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L122" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M122" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N122" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="8" t="s">
+      <c r="K122" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M122" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N122" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="s">
         <v>347</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -7237,21 +6901,21 @@
       <c r="J123" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K123" s="8" t="s">
+      <c r="K123" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="L123" s="8" t="s">
+      <c r="L123" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M123" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N123" s="8" t="s">
+      <c r="M123" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N123" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A124" s="8" t="s">
+    <row r="124">
+      <c r="A124" s="4" t="s">
         <v>347</v>
       </c>
       <c r="B124" s="4" t="s">
@@ -7281,21 +6945,21 @@
       <c r="J124" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="K124" s="8" t="s">
+      <c r="K124" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="L124" s="8" t="s">
+      <c r="L124" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M124" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N124" s="8" t="s">
+      <c r="M124" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N124" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="8" t="s">
+    <row r="125">
+      <c r="A125" s="4" t="s">
         <v>347</v>
       </c>
       <c r="B125" s="4" t="s">
@@ -7325,21 +6989,21 @@
       <c r="J125" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="K125" s="8" t="s">
+      <c r="K125" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="L125" s="8" t="s">
+      <c r="L125" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="M125" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N125" s="8" t="s">
+      <c r="M125" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N125" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="8" t="s">
+    <row r="126">
+      <c r="A126" s="4" t="s">
         <v>347</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -7369,21 +7033,21 @@
       <c r="J126" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K126" s="8" t="s">
+      <c r="K126" s="4" t="s">
         <v>140</v>
       </c>
       <c r="L126" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M126" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N126" s="8" t="s">
+      <c r="M126" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N126" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="8" t="s">
+    <row r="127">
+      <c r="A127" s="4" t="s">
         <v>347</v>
       </c>
       <c r="B127" s="4" t="s">
@@ -7419,15 +7083,15 @@
       <c r="L127" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M127" s="8" t="s">
+      <c r="M127" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N127" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="8" t="s">
+    <row r="128">
+      <c r="A128" s="4" t="s">
         <v>347</v>
       </c>
       <c r="B128" s="4" t="s">
@@ -7457,21 +7121,21 @@
       <c r="J128" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="K128" s="8" t="s">
+      <c r="K128" s="4" t="s">
         <v>140</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M128" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N128" s="8" t="s">
+      <c r="M128" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N128" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A129" s="8" t="s">
+    <row r="129">
+      <c r="A129" s="4" t="s">
         <v>347</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -7501,21 +7165,21 @@
       <c r="J129" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="K129" s="8" t="s">
+      <c r="K129" s="4" t="s">
         <v>140</v>
       </c>
       <c r="L129" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="M129" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N129" s="8" t="s">
+      <c r="M129" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N129" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="8" t="s">
+    <row r="130">
+      <c r="A130" s="4" t="s">
         <v>347</v>
       </c>
       <c r="B130" s="4" t="s">
@@ -7545,21 +7209,21 @@
       <c r="J130" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="K130" s="8" t="s">
+      <c r="K130" s="4" t="s">
         <v>140</v>
       </c>
       <c r="L130" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="M130" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N130" s="8" t="s">
+      <c r="M130" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N130" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="8" t="s">
+    <row r="131">
+      <c r="A131" s="4" t="s">
         <v>347</v>
       </c>
       <c r="B131" s="4" t="s">
@@ -7589,21 +7253,21 @@
       <c r="J131" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K131" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L131" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M131" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N131" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="8" t="s">
+      <c r="K131" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M131" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N131" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="4" t="s">
         <v>347</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -7633,21 +7297,21 @@
       <c r="J132" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K132" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L132" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M132" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N132" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="9" t="s">
+      <c r="K132" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L132" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M132" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N132" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="5" t="s">
         <v>347</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -7677,21 +7341,21 @@
       <c r="J133" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K133" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L133" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M133" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N133" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A134" s="6" t="s">
+      <c r="K133" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L133" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M133" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N133" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
         <v>367</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -7721,21 +7385,21 @@
       <c r="J134" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="K134" s="6" t="s">
+      <c r="K134" s="2" t="s">
         <v>69</v>
       </c>
       <c r="L134" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="M134" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N134" s="6" t="s">
+      <c r="M134" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N134" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A135" s="6" t="s">
+    <row r="135">
+      <c r="A135" s="2" t="s">
         <v>367</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -7765,21 +7429,21 @@
       <c r="J135" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K135" s="6" t="s">
+      <c r="K135" s="2" t="s">
         <v>69</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M135" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N135" s="6" t="s">
+      <c r="M135" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N135" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A136" s="6" t="s">
+    <row r="136">
+      <c r="A136" s="2" t="s">
         <v>367</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -7809,21 +7473,21 @@
       <c r="J136" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K136" s="6" t="s">
+      <c r="K136" s="2" t="s">
         <v>69</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M136" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N136" s="6" t="s">
+      <c r="M136" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N136" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A137" s="6" t="s">
+    <row r="137">
+      <c r="A137" s="2" t="s">
         <v>367</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -7853,21 +7517,21 @@
       <c r="J137" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K137" s="6" t="s">
+      <c r="K137" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L137" s="6" t="s">
+      <c r="L137" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M137" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N137" s="6" t="s">
+      <c r="M137" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N137" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A138" s="6" t="s">
+    <row r="138">
+      <c r="A138" s="2" t="s">
         <v>367</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -7897,21 +7561,21 @@
       <c r="J138" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K138" s="6" t="s">
+      <c r="K138" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L138" s="6" t="s">
+      <c r="L138" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M138" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N138" s="6" t="s">
+      <c r="M138" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N138" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A139" s="6" t="s">
+    <row r="139">
+      <c r="A139" s="2" t="s">
         <v>367</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -7947,15 +7611,15 @@
       <c r="L139" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M139" s="6" t="s">
+      <c r="M139" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N139" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A140" s="6" t="s">
+    <row r="140">
+      <c r="A140" s="2" t="s">
         <v>367</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -7985,21 +7649,21 @@
       <c r="J140" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="K140" s="6" t="s">
+      <c r="K140" s="2" t="s">
         <v>69</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M140" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N140" s="6" t="s">
+      <c r="M140" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N140" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A141" s="6" t="s">
+    <row r="141">
+      <c r="A141" s="2" t="s">
         <v>367</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -8029,21 +7693,21 @@
       <c r="J141" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K141" s="6" t="s">
+      <c r="K141" s="2" t="s">
         <v>69</v>
       </c>
       <c r="L141" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M141" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N141" s="6" t="s">
+      <c r="M141" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N141" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A142" s="6" t="s">
+    <row r="142">
+      <c r="A142" s="2" t="s">
         <v>367</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -8079,15 +7743,15 @@
       <c r="L142" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M142" s="6" t="s">
+      <c r="M142" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N142" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A143" s="6" t="s">
+    <row r="143">
+      <c r="A143" s="2" t="s">
         <v>367</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -8117,21 +7781,21 @@
       <c r="J143" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="K143" s="6" t="s">
+      <c r="K143" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L143" s="6" t="s">
+      <c r="L143" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M143" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N143" s="6" t="s">
+      <c r="M143" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N143" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A144" s="7" t="s">
+    <row r="144">
+      <c r="A144" s="3" t="s">
         <v>367</v>
       </c>
       <c r="B144" s="3" t="s">
@@ -8161,21 +7825,21 @@
       <c r="J144" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="K144" s="7" t="s">
+      <c r="K144" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="L144" s="7" t="s">
+      <c r="L144" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="M144" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N144" s="7" t="s">
+      <c r="M144" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N144" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A145" s="8" t="s">
+    <row r="145">
+      <c r="A145" s="4" t="s">
         <v>388</v>
       </c>
       <c r="B145" s="4" t="s">
@@ -8205,21 +7869,21 @@
       <c r="J145" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="K145" s="8" t="s">
+      <c r="K145" s="4" t="s">
         <v>392</v>
       </c>
       <c r="L145" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M145" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N145" s="8" t="s">
+      <c r="M145" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N145" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A146" s="8" t="s">
+    <row r="146">
+      <c r="A146" s="4" t="s">
         <v>388</v>
       </c>
       <c r="B146" s="4" t="s">
@@ -8249,21 +7913,21 @@
       <c r="J146" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K146" s="8" t="s">
+      <c r="K146" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="L146" s="8" t="s">
+      <c r="L146" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M146" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N146" s="8" t="s">
+      <c r="M146" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N146" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A147" s="8" t="s">
+    <row r="147">
+      <c r="A147" s="4" t="s">
         <v>388</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -8293,21 +7957,21 @@
       <c r="J147" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K147" s="8" t="s">
+      <c r="K147" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="L147" s="8" t="s">
+      <c r="L147" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M147" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N147" s="8" t="s">
+      <c r="M147" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N147" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A148" s="8" t="s">
+    <row r="148">
+      <c r="A148" s="4" t="s">
         <v>388</v>
       </c>
       <c r="B148" s="4" t="s">
@@ -8343,15 +8007,15 @@
       <c r="L148" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M148" s="8" t="s">
+      <c r="M148" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N148" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A149" s="8" t="s">
+    <row r="149">
+      <c r="A149" s="4" t="s">
         <v>388</v>
       </c>
       <c r="B149" s="4" t="s">
@@ -8387,15 +8051,15 @@
       <c r="L149" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M149" s="8" t="s">
+      <c r="M149" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N149" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A150" s="8" t="s">
+    <row r="150">
+      <c r="A150" s="4" t="s">
         <v>388</v>
       </c>
       <c r="B150" s="4" t="s">
@@ -8431,15 +8095,15 @@
       <c r="L150" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M150" s="8" t="s">
+      <c r="M150" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N150" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A151" s="8" t="s">
+    <row r="151">
+      <c r="A151" s="4" t="s">
         <v>388</v>
       </c>
       <c r="B151" s="4" t="s">
@@ -8475,15 +8139,15 @@
       <c r="L151" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M151" s="8" t="s">
+      <c r="M151" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N151" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A152" s="8" t="s">
+    <row r="152">
+      <c r="A152" s="4" t="s">
         <v>388</v>
       </c>
       <c r="B152" s="4" t="s">
@@ -8513,21 +8177,21 @@
       <c r="J152" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K152" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L152" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M152" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N152" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A153" s="8" t="s">
+      <c r="K152" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L152" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M152" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N152" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="4" t="s">
         <v>388</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -8557,21 +8221,21 @@
       <c r="J153" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K153" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L153" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M153" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N153" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A154" s="8" t="s">
+      <c r="K153" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L153" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M153" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N153" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="4" t="s">
         <v>388</v>
       </c>
       <c r="B154" s="4" t="s">
@@ -8601,21 +8265,21 @@
       <c r="J154" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K154" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L154" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M154" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N154" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A155" s="9" t="s">
+      <c r="K154" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L154" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M154" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N154" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="5" t="s">
         <v>388</v>
       </c>
       <c r="B155" s="5" t="s">
@@ -8645,21 +8309,21 @@
       <c r="J155" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K155" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L155" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M155" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N155" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A156" s="6" t="s">
+      <c r="K155" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L155" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M155" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N155" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -8689,21 +8353,21 @@
       <c r="J156" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="K156" s="6" t="s">
+      <c r="K156" s="2" t="s">
         <v>195</v>
       </c>
       <c r="L156" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M156" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N156" s="6" t="s">
+      <c r="M156" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N156" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A157" s="6" t="s">
+    <row r="157">
+      <c r="A157" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -8733,21 +8397,21 @@
       <c r="J157" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K157" s="6" t="s">
+      <c r="K157" s="2" t="s">
         <v>195</v>
       </c>
       <c r="L157" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M157" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N157" s="6" t="s">
+      <c r="M157" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N157" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A158" s="6" t="s">
+    <row r="158">
+      <c r="A158" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -8777,21 +8441,21 @@
       <c r="J158" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="K158" s="6" t="s">
+      <c r="K158" s="2" t="s">
         <v>195</v>
       </c>
       <c r="L158" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="M158" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N158" s="6" t="s">
+      <c r="M158" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N158" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A159" s="6" t="s">
+    <row r="159">
+      <c r="A159" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -8821,21 +8485,21 @@
       <c r="J159" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="K159" s="6" t="s">
+      <c r="K159" s="2" t="s">
         <v>195</v>
       </c>
       <c r="L159" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="M159" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N159" s="6" t="s">
+      <c r="M159" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N159" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A160" s="6" t="s">
+    <row r="160">
+      <c r="A160" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -8865,21 +8529,21 @@
       <c r="J160" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="K160" s="6" t="s">
+      <c r="K160" s="2" t="s">
         <v>195</v>
       </c>
       <c r="L160" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="M160" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N160" s="6" t="s">
+      <c r="M160" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N160" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A161" s="6" t="s">
+    <row r="161">
+      <c r="A161" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -8909,21 +8573,21 @@
       <c r="J161" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K161" s="6" t="s">
+      <c r="K161" s="2" t="s">
         <v>195</v>
       </c>
       <c r="L161" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="M161" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N161" s="6" t="s">
+      <c r="M161" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N161" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A162" s="6" t="s">
+    <row r="162">
+      <c r="A162" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -8953,21 +8617,21 @@
       <c r="J162" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K162" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L162" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M162" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N162" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A163" s="6" t="s">
+      <c r="K162" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L162" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M162" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N162" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -8997,21 +8661,21 @@
       <c r="J163" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K163" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L163" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M163" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N163" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A164" s="6" t="s">
+      <c r="K163" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M163" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N163" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -9047,15 +8711,15 @@
       <c r="L164" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="M164" s="6" t="s">
+      <c r="M164" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N164" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A165" s="6" t="s">
+    <row r="165">
+      <c r="A165" s="2" t="s">
         <v>403</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -9085,21 +8749,21 @@
       <c r="J165" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K165" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L165" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M165" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N165" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A166" s="7" t="s">
+      <c r="K165" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M165" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N165" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3" t="s">
         <v>403</v>
       </c>
       <c r="B166" s="3" t="s">
@@ -9129,21 +8793,21 @@
       <c r="J166" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K166" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L166" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M166" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N166" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A167" s="8" t="s">
+      <c r="K166" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M166" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N166" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="4" t="s">
         <v>424</v>
       </c>
       <c r="B167" s="4" t="s">
@@ -9173,21 +8837,21 @@
       <c r="J167" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="K167" s="8" t="s">
+      <c r="K167" s="4" t="s">
         <v>392</v>
       </c>
       <c r="L167" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="M167" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N167" s="8" t="s">
+      <c r="M167" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N167" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A168" s="8" t="s">
+    <row r="168">
+      <c r="A168" s="4" t="s">
         <v>424</v>
       </c>
       <c r="B168" s="4" t="s">
@@ -9217,21 +8881,21 @@
       <c r="J168" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K168" s="8" t="s">
+      <c r="K168" s="4" t="s">
         <v>392</v>
       </c>
       <c r="L168" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M168" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N168" s="8" t="s">
+      <c r="M168" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N168" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A169" s="8" t="s">
+    <row r="169">
+      <c r="A169" s="4" t="s">
         <v>424</v>
       </c>
       <c r="B169" s="4" t="s">
@@ -9261,21 +8925,21 @@
       <c r="J169" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="K169" s="8" t="s">
+      <c r="K169" s="4" t="s">
         <v>392</v>
       </c>
       <c r="L169" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="M169" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N169" s="8" t="s">
+      <c r="M169" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N169" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A170" s="8" t="s">
+    <row r="170">
+      <c r="A170" s="4" t="s">
         <v>424</v>
       </c>
       <c r="B170" s="4" t="s">
@@ -9311,15 +8975,15 @@
       <c r="L170" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="M170" s="8" t="s">
+      <c r="M170" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N170" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A171" s="8" t="s">
+    <row r="171">
+      <c r="A171" s="4" t="s">
         <v>424</v>
       </c>
       <c r="B171" s="4" t="s">
@@ -9355,15 +9019,15 @@
       <c r="L171" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M171" s="8" t="s">
+      <c r="M171" s="4" t="s">
         <v>21</v>
       </c>
       <c r="N171" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A172" s="8" t="s">
+    <row r="172">
+      <c r="A172" s="4" t="s">
         <v>424</v>
       </c>
       <c r="B172" s="4" t="s">
@@ -9393,21 +9057,21 @@
       <c r="J172" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K172" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L172" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M172" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N172" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A173" s="8" t="s">
+      <c r="K172" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L172" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M172" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N172" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="4" t="s">
         <v>424</v>
       </c>
       <c r="B173" s="4" t="s">
@@ -9437,21 +9101,21 @@
       <c r="J173" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K173" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L173" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M173" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N173" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A174" s="8" t="s">
+      <c r="K173" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L173" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M173" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N173" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="4" t="s">
         <v>424</v>
       </c>
       <c r="B174" s="4" t="s">
@@ -9481,21 +9145,21 @@
       <c r="J174" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K174" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L174" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M174" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N174" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A175" s="8" t="s">
+      <c r="K174" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L174" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M174" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N174" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="4" t="s">
         <v>424</v>
       </c>
       <c r="B175" s="4" t="s">
@@ -9525,21 +9189,21 @@
       <c r="J175" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="K175" s="8" t="s">
+      <c r="K175" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="L175" s="8" t="s">
+      <c r="L175" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="M175" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N175" s="8" t="s">
+      <c r="M175" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N175" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A176" s="8" t="s">
+    <row r="176">
+      <c r="A176" s="4" t="s">
         <v>424</v>
       </c>
       <c r="B176" s="4" t="s">
@@ -9569,21 +9233,21 @@
       <c r="J176" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="K176" s="8" t="s">
+      <c r="K176" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="L176" s="8" t="s">
+      <c r="L176" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="M176" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N176" s="8" t="s">
+      <c r="M176" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N176" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A177" s="9" t="s">
+    <row r="177">
+      <c r="A177" s="5" t="s">
         <v>424</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -9613,21 +9277,21 @@
       <c r="J177" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="K177" s="9" t="s">
+      <c r="K177" s="5" t="s">
         <v>392</v>
       </c>
       <c r="L177" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M177" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N177" s="9" t="s">
+      <c r="M177" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N177" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A178" s="6" t="s">
+    <row r="178">
+      <c r="A178" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -9657,21 +9321,21 @@
       <c r="J178" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="K178" s="6" t="s">
+      <c r="K178" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L178" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M178" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N178" s="6" t="s">
+      <c r="M178" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N178" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A179" s="6" t="s">
+    <row r="179">
+      <c r="A179" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -9701,21 +9365,21 @@
       <c r="J179" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="K179" s="6" t="s">
+      <c r="K179" s="2" t="s">
         <v>24</v>
       </c>
       <c r="L179" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="M179" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N179" s="6" t="s">
+      <c r="M179" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N179" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A180" s="6" t="s">
+    <row r="180">
+      <c r="A180" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -9745,21 +9409,21 @@
       <c r="J180" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K180" s="6" t="s">
+      <c r="K180" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L180" s="6" t="s">
+      <c r="L180" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M180" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N180" s="6" t="s">
+      <c r="M180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N180" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A181" s="6" t="s">
+    <row r="181">
+      <c r="A181" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -9789,21 +9453,21 @@
       <c r="J181" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K181" s="6" t="s">
+      <c r="K181" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L181" s="6" t="s">
+      <c r="L181" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M181" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N181" s="6" t="s">
+      <c r="M181" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N181" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A182" s="6" t="s">
+    <row r="182">
+      <c r="A182" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -9833,21 +9497,21 @@
       <c r="J182" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="K182" s="6" t="s">
+      <c r="K182" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L182" s="6" t="s">
+      <c r="L182" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M182" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N182" s="6" t="s">
+      <c r="M182" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N182" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A183" s="6" t="s">
+    <row r="183">
+      <c r="A183" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -9877,21 +9541,21 @@
       <c r="J183" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="K183" s="6" t="s">
+      <c r="K183" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L183" s="6" t="s">
+      <c r="L183" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M183" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N183" s="6" t="s">
+      <c r="M183" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N183" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A184" s="6" t="s">
+    <row r="184">
+      <c r="A184" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -9921,21 +9585,21 @@
       <c r="J184" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K184" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L184" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M184" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N184" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A185" s="6" t="s">
+      <c r="K184" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L184" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M184" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N184" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -9965,21 +9629,21 @@
       <c r="J185" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K185" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L185" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M185" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N185" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A186" s="6" t="s">
+      <c r="K185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N185" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -10015,15 +9679,15 @@
       <c r="L186" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M186" s="6" t="s">
+      <c r="M186" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N186" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A187" s="6" t="s">
+    <row r="187">
+      <c r="A187" s="2" t="s">
         <v>442</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -10059,15 +9723,15 @@
       <c r="L187" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="M187" s="6" t="s">
+      <c r="M187" s="2" t="s">
         <v>21</v>
       </c>
       <c r="N187" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A188" s="7" t="s">
+    <row r="188">
+      <c r="A188" s="3" t="s">
         <v>442</v>
       </c>
       <c r="B188" s="3" t="s">
@@ -10103,7 +9767,7 @@
       <c r="L188" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="M188" s="7" t="s">
+      <c r="M188" s="3" t="s">
         <v>21</v>
       </c>
       <c r="N188" s="3" t="s">
@@ -10111,35 +9775,110 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="147">
-    <mergeCell ref="N175:N177"/>
-    <mergeCell ref="N178:N183"/>
-    <mergeCell ref="N184:N185"/>
-    <mergeCell ref="N156:N161"/>
-    <mergeCell ref="N162:N163"/>
-    <mergeCell ref="N165:N166"/>
-    <mergeCell ref="N167:N169"/>
-    <mergeCell ref="N172:N174"/>
-    <mergeCell ref="N134:N138"/>
-    <mergeCell ref="N140:N141"/>
-    <mergeCell ref="N143:N144"/>
-    <mergeCell ref="N145:N147"/>
-    <mergeCell ref="N152:N155"/>
-    <mergeCell ref="N117:N118"/>
-    <mergeCell ref="N121:N122"/>
-    <mergeCell ref="N123:N126"/>
-    <mergeCell ref="N128:N130"/>
-    <mergeCell ref="N131:N133"/>
-    <mergeCell ref="N90:N96"/>
-    <mergeCell ref="N98:N100"/>
-    <mergeCell ref="N101:N109"/>
-    <mergeCell ref="N110:N111"/>
-    <mergeCell ref="N112:N115"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="N66:N67"/>
-    <mergeCell ref="N68:N78"/>
-    <mergeCell ref="N79:N86"/>
-    <mergeCell ref="N88:N89"/>
+  <mergeCells>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="A68:A78"/>
+    <mergeCell ref="A79:A89"/>
+    <mergeCell ref="A90:A100"/>
+    <mergeCell ref="A101:A111"/>
+    <mergeCell ref="A112:A122"/>
+    <mergeCell ref="A123:A133"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A145:A155"/>
+    <mergeCell ref="A156:A166"/>
+    <mergeCell ref="A167:A177"/>
+    <mergeCell ref="A178:A188"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="K13:K20"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="K24:K32"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="K35:K43"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="K46:K53"/>
+    <mergeCell ref="K57:K62"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="K68:K78"/>
+    <mergeCell ref="K79:K86"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="K90:K96"/>
+    <mergeCell ref="K98:K100"/>
+    <mergeCell ref="K101:K109"/>
+    <mergeCell ref="K110:K111"/>
+    <mergeCell ref="K112:K115"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="K123:K126"/>
+    <mergeCell ref="K128:K130"/>
+    <mergeCell ref="K131:K133"/>
+    <mergeCell ref="K134:K138"/>
+    <mergeCell ref="K140:K141"/>
+    <mergeCell ref="K143:K144"/>
+    <mergeCell ref="K145:K147"/>
+    <mergeCell ref="K152:K155"/>
+    <mergeCell ref="K156:K161"/>
+    <mergeCell ref="K162:K163"/>
+    <mergeCell ref="K165:K166"/>
+    <mergeCell ref="K167:K169"/>
+    <mergeCell ref="K172:K174"/>
+    <mergeCell ref="K175:K177"/>
+    <mergeCell ref="K178:K183"/>
+    <mergeCell ref="K184:K185"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L11:L12"/>
+    <mergeCell ref="L13:L15"/>
+    <mergeCell ref="L17:L19"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L51:L53"/>
+    <mergeCell ref="L59:L62"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="L81:L86"/>
+    <mergeCell ref="L92:L96"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="L110:L111"/>
+    <mergeCell ref="L113:L115"/>
+    <mergeCell ref="L121:L122"/>
+    <mergeCell ref="L123:L125"/>
+    <mergeCell ref="L131:L133"/>
+    <mergeCell ref="L137:L138"/>
+    <mergeCell ref="L143:L144"/>
+    <mergeCell ref="L146:L147"/>
+    <mergeCell ref="L152:L155"/>
+    <mergeCell ref="L162:L163"/>
+    <mergeCell ref="L165:L166"/>
+    <mergeCell ref="L172:L174"/>
+    <mergeCell ref="L175:L176"/>
+    <mergeCell ref="L180:L181"/>
+    <mergeCell ref="L182:L183"/>
+    <mergeCell ref="L184:L185"/>
+    <mergeCell ref="M2:M12"/>
+    <mergeCell ref="M13:M23"/>
+    <mergeCell ref="M24:M34"/>
+    <mergeCell ref="M35:M45"/>
+    <mergeCell ref="M46:M56"/>
+    <mergeCell ref="M57:M67"/>
+    <mergeCell ref="M68:M78"/>
+    <mergeCell ref="M79:M89"/>
+    <mergeCell ref="M90:M100"/>
+    <mergeCell ref="M101:M111"/>
+    <mergeCell ref="M112:M122"/>
+    <mergeCell ref="M123:M133"/>
+    <mergeCell ref="M134:M144"/>
     <mergeCell ref="M145:M155"/>
     <mergeCell ref="M156:M166"/>
     <mergeCell ref="M167:M177"/>
@@ -10156,110 +9895,35 @@
     <mergeCell ref="N44:N45"/>
     <mergeCell ref="N46:N53"/>
     <mergeCell ref="N57:N62"/>
-    <mergeCell ref="L180:L181"/>
-    <mergeCell ref="L182:L183"/>
-    <mergeCell ref="L184:L185"/>
-    <mergeCell ref="M2:M12"/>
-    <mergeCell ref="M13:M23"/>
-    <mergeCell ref="M24:M34"/>
-    <mergeCell ref="M35:M45"/>
-    <mergeCell ref="M46:M56"/>
-    <mergeCell ref="M57:M67"/>
-    <mergeCell ref="M68:M78"/>
-    <mergeCell ref="M79:M89"/>
-    <mergeCell ref="M90:M100"/>
-    <mergeCell ref="M101:M111"/>
-    <mergeCell ref="M112:M122"/>
-    <mergeCell ref="M123:M133"/>
-    <mergeCell ref="M134:M144"/>
-    <mergeCell ref="L152:L155"/>
-    <mergeCell ref="L162:L163"/>
-    <mergeCell ref="L165:L166"/>
-    <mergeCell ref="L172:L174"/>
-    <mergeCell ref="L175:L176"/>
-    <mergeCell ref="L123:L125"/>
-    <mergeCell ref="L131:L133"/>
-    <mergeCell ref="L137:L138"/>
-    <mergeCell ref="L143:L144"/>
-    <mergeCell ref="L146:L147"/>
-    <mergeCell ref="L102:L103"/>
-    <mergeCell ref="L107:L108"/>
-    <mergeCell ref="L110:L111"/>
-    <mergeCell ref="L113:L115"/>
-    <mergeCell ref="L121:L122"/>
-    <mergeCell ref="K184:K185"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="L13:L15"/>
-    <mergeCell ref="L17:L19"/>
-    <mergeCell ref="L26:L28"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L51:L53"/>
-    <mergeCell ref="L59:L62"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="L81:L86"/>
-    <mergeCell ref="L92:L96"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="K165:K166"/>
-    <mergeCell ref="K167:K169"/>
-    <mergeCell ref="K172:K174"/>
-    <mergeCell ref="K175:K177"/>
-    <mergeCell ref="K178:K183"/>
-    <mergeCell ref="K143:K144"/>
-    <mergeCell ref="K145:K147"/>
-    <mergeCell ref="K152:K155"/>
-    <mergeCell ref="K156:K161"/>
-    <mergeCell ref="K162:K163"/>
-    <mergeCell ref="K123:K126"/>
-    <mergeCell ref="K128:K130"/>
-    <mergeCell ref="K131:K133"/>
-    <mergeCell ref="K134:K138"/>
-    <mergeCell ref="K140:K141"/>
-    <mergeCell ref="K101:K109"/>
-    <mergeCell ref="K110:K111"/>
-    <mergeCell ref="K112:K115"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="K68:K78"/>
-    <mergeCell ref="K79:K86"/>
-    <mergeCell ref="K88:K89"/>
-    <mergeCell ref="K90:K96"/>
-    <mergeCell ref="K98:K100"/>
-    <mergeCell ref="A167:A177"/>
-    <mergeCell ref="A178:A188"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="K13:K20"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="K24:K32"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="K35:K43"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="K46:K53"/>
-    <mergeCell ref="K57:K62"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="A112:A122"/>
-    <mergeCell ref="A123:A133"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A145:A155"/>
-    <mergeCell ref="A156:A166"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="A68:A78"/>
-    <mergeCell ref="A79:A89"/>
-    <mergeCell ref="A90:A100"/>
-    <mergeCell ref="A101:A111"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="A24:A34"/>
-    <mergeCell ref="A35:A45"/>
-    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="N66:N67"/>
+    <mergeCell ref="N68:N78"/>
+    <mergeCell ref="N79:N86"/>
+    <mergeCell ref="N88:N89"/>
+    <mergeCell ref="N90:N96"/>
+    <mergeCell ref="N98:N100"/>
+    <mergeCell ref="N101:N109"/>
+    <mergeCell ref="N110:N111"/>
+    <mergeCell ref="N112:N115"/>
+    <mergeCell ref="N117:N118"/>
+    <mergeCell ref="N121:N122"/>
+    <mergeCell ref="N123:N126"/>
+    <mergeCell ref="N128:N130"/>
+    <mergeCell ref="N131:N133"/>
+    <mergeCell ref="N134:N138"/>
+    <mergeCell ref="N140:N141"/>
+    <mergeCell ref="N143:N144"/>
+    <mergeCell ref="N145:N147"/>
+    <mergeCell ref="N152:N155"/>
+    <mergeCell ref="N156:N161"/>
+    <mergeCell ref="N162:N163"/>
+    <mergeCell ref="N165:N166"/>
+    <mergeCell ref="N167:N169"/>
+    <mergeCell ref="N172:N174"/>
+    <mergeCell ref="N175:N177"/>
+    <mergeCell ref="N178:N183"/>
+    <mergeCell ref="N184:N185"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/fesch/output/output_001.xlsx
+++ b/fesch/output/output_001.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Munka\bme\onlab\fesch\output\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A109C6B-CC67-4EC0-9E18-60989B69275A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView/>
   </bookViews>
   <sheets>
     <sheet name="1. kör" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="458">
   <si>
     <t>Összesítő</t>
   </si>
@@ -1399,8 +1391,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1420,7 +1413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
+        <fgColor rgb="FFCCFFCC" tint="0"/>
       </patternFill>
     </fill>
   </fills>
@@ -1436,407 +1429,77 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:N188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" customWidth="1"/>
-    <col min="7" max="7" width="25.44140625" customWidth="1"/>
-    <col min="8" max="8" width="82.88671875" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="36.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.109375" customWidth="1"/>
-    <col min="12" max="12" width="22.5546875" customWidth="1"/>
-    <col min="13" max="14" width="9.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.327130317688" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.7038021087646" customWidth="1"/>
+    <col min="5" max="5" width="10.1682767868042" customWidth="1"/>
+    <col min="6" max="6" width="13.8010873794556" customWidth="1"/>
+    <col min="7" max="7" width="25.4578037261963" customWidth="1"/>
+    <col min="8" max="8" width="82.8629989624023" customWidth="1"/>
+    <col min="9" max="9" width="10.6799945831299" customWidth="1"/>
+    <col min="10" max="10" width="36.4618911743164" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="22.5297889709473" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1880,8 +1543,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2">
+      <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1911,21 +1574,21 @@
       <c r="J2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1955,21 +1618,21 @@
       <c r="J3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="6" t="s">
+      <c r="M3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4">
+      <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1999,21 +1662,21 @@
       <c r="J4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="6" t="s">
+      <c r="M4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2043,21 +1706,21 @@
       <c r="J5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="6" t="s">
+      <c r="M5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2087,21 +1750,21 @@
       <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="6" t="s">
+      <c r="M6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7">
+      <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2131,21 +1794,21 @@
       <c r="J7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="L7" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="6" t="s">
+      <c r="M7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8">
+      <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2175,21 +1838,21 @@
       <c r="J8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="6" t="s">
+      <c r="M8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9">
+      <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2219,21 +1882,21 @@
       <c r="J9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="6" t="s">
+      <c r="M9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2263,21 +1926,21 @@
       <c r="J10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="K10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2307,21 +1970,21 @@
       <c r="J11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="K11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2351,21 +2014,21 @@
       <c r="J12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="K12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2395,21 +2058,21 @@
       <c r="J13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K13" s="8" t="s">
+      <c r="K13" s="4" t="s">
         <v>81</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N13" s="8" t="s">
+      <c r="M13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="14">
+      <c r="A14" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2439,21 +2102,21 @@
       <c r="J14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K14" s="8" t="s">
+      <c r="K14" s="4" t="s">
         <v>81</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" s="8" t="s">
+      <c r="M14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+    <row r="15">
+      <c r="A15" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2483,21 +2146,21 @@
       <c r="J15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="8" t="s">
+      <c r="K15" s="4" t="s">
         <v>81</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N15" s="8" t="s">
+      <c r="M15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="16">
+      <c r="A16" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2527,21 +2190,21 @@
       <c r="J16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K16" s="8" t="s">
+      <c r="K16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M16" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16" s="8" t="s">
+      <c r="M16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N16" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+    <row r="17">
+      <c r="A17" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2571,21 +2234,21 @@
       <c r="J17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="K17" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L17" s="8" t="s">
+      <c r="L17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" s="8" t="s">
+      <c r="M17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+    <row r="18">
+      <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2615,21 +2278,21 @@
       <c r="J18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="4" t="s">
         <v>81</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="8" t="s">
+      <c r="M18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+    <row r="19">
+      <c r="A19" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2659,21 +2322,21 @@
       <c r="J19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="4" t="s">
         <v>81</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="8" t="s">
+      <c r="M19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+    <row r="20">
+      <c r="A20" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2703,21 +2366,21 @@
       <c r="J20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="4" t="s">
         <v>81</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M20" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="8" t="s">
+      <c r="M20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N20" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+    <row r="21">
+      <c r="A21" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2747,21 +2410,21 @@
       <c r="J21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K21" s="8" t="s">
+      <c r="K21" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="L21" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" s="8" t="s">
+      <c r="M21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N21" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+    <row r="22">
+      <c r="A22" s="4" t="s">
         <v>75</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2791,21 +2454,21 @@
       <c r="J22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="8" t="s">
+      <c r="K22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="8" t="s">
+      <c r="M22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
+    <row r="23">
+      <c r="A23" s="5" t="s">
         <v>75</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -2841,15 +2504,15 @@
       <c r="L23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M23" s="9" t="s">
+      <c r="M23" s="5" t="s">
         <v>21</v>
       </c>
       <c r="N23" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
+    <row r="24">
+      <c r="A24" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -2879,21 +2542,21 @@
       <c r="J24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="2" t="s">
         <v>123</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="6" t="s">
+      <c r="M24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N24" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+    <row r="25">
+      <c r="A25" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -2923,21 +2586,21 @@
       <c r="J25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="K25" s="2" t="s">
         <v>123</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="6" t="s">
+      <c r="M25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N25" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
+    <row r="26">
+      <c r="A26" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -2967,21 +2630,21 @@
       <c r="J26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K26" s="6" t="s">
+      <c r="K26" s="2" t="s">
         <v>123</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="6" t="s">
+      <c r="M26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N26" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
+    <row r="27">
+      <c r="A27" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3011,21 +2674,21 @@
       <c r="J27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="K27" s="2" t="s">
         <v>123</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="6" t="s">
+      <c r="M27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
+    <row r="28">
+      <c r="A28" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3055,21 +2718,21 @@
       <c r="J28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="K28" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="L28" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M28" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="6" t="s">
+      <c r="M28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N28" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+    <row r="29">
+      <c r="A29" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3099,21 +2762,21 @@
       <c r="J29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="L29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M29" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="6" t="s">
+      <c r="M29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N29" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
+    <row r="30">
+      <c r="A30" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3143,21 +2806,21 @@
       <c r="J30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K30" s="6" t="s">
+      <c r="K30" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="L30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M30" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="6" t="s">
+      <c r="M30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+    <row r="31">
+      <c r="A31" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3187,21 +2850,21 @@
       <c r="J31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="L31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="6" t="s">
+      <c r="M31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N31" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
+    <row r="32">
+      <c r="A32" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3231,21 +2894,21 @@
       <c r="J32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K32" s="2" t="s">
         <v>123</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M32" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="6" t="s">
+      <c r="M32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N32" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+    <row r="33">
+      <c r="A33" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3275,21 +2938,21 @@
       <c r="J33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K33" s="6" t="s">
+      <c r="K33" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L33" s="6" t="s">
+      <c r="L33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M33" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" s="6" t="s">
+      <c r="M33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N33" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="7" t="s">
+    <row r="34">
+      <c r="A34" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -3319,21 +2982,21 @@
       <c r="J34" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="K34" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="M34" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" s="7" t="s">
+      <c r="M34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N34" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
+    <row r="35">
+      <c r="A35" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -3363,21 +3026,21 @@
       <c r="J35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K35" s="8" t="s">
+      <c r="K35" s="4" t="s">
         <v>81</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="8" t="s">
+      <c r="M35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N35" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
+    <row r="36">
+      <c r="A36" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3407,21 +3070,21 @@
       <c r="J36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K36" s="8" t="s">
+      <c r="K36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="L36" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N36" s="8" t="s">
+      <c r="M36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N36" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
+    <row r="37">
+      <c r="A37" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -3451,21 +3114,21 @@
       <c r="J37" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K37" s="8" t="s">
+      <c r="K37" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L37" s="8" t="s">
+      <c r="L37" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N37" s="8" t="s">
+      <c r="M37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N37" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+    <row r="38">
+      <c r="A38" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -3495,21 +3158,21 @@
       <c r="J38" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K38" s="8" t="s">
+      <c r="K38" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L38" s="8" t="s">
+      <c r="L38" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N38" s="8" t="s">
+      <c r="M38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N38" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
+    <row r="39">
+      <c r="A39" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -3539,21 +3202,21 @@
       <c r="J39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K39" s="8" t="s">
+      <c r="K39" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L39" s="8" t="s">
+      <c r="L39" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N39" s="8" t="s">
+      <c r="M39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N39" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
+    <row r="40">
+      <c r="A40" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -3583,21 +3246,21 @@
       <c r="J40" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K40" s="8" t="s">
+      <c r="K40" s="4" t="s">
         <v>81</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M40" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N40" s="8" t="s">
+      <c r="M40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N40" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
+    <row r="41">
+      <c r="A41" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3627,21 +3290,21 @@
       <c r="J41" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K41" s="8" t="s">
+      <c r="K41" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="L41" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N41" s="8" t="s">
+      <c r="M41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N41" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+    <row r="42">
+      <c r="A42" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -3671,21 +3334,21 @@
       <c r="J42" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K42" s="8" t="s">
+      <c r="K42" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L42" s="8" t="s">
+      <c r="L42" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M42" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N42" s="8" t="s">
+      <c r="M42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N42" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
+    <row r="43">
+      <c r="A43" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -3715,21 +3378,21 @@
       <c r="J43" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K43" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L43" s="8" t="s">
+      <c r="L43" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M43" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N43" s="8" t="s">
+      <c r="M43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N43" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
+    <row r="44">
+      <c r="A44" s="4" t="s">
         <v>151</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -3759,21 +3422,21 @@
       <c r="J44" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K44" s="8" t="s">
+      <c r="K44" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="L44" s="8" t="s">
+      <c r="L44" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M44" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N44" s="8" t="s">
+      <c r="M44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N44" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="9" t="s">
+    <row r="45">
+      <c r="A45" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -3809,15 +3472,15 @@
       <c r="L45" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M45" s="9" t="s">
+      <c r="M45" s="5" t="s">
         <v>21</v>
       </c>
       <c r="N45" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
+    <row r="46">
+      <c r="A46" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3847,21 +3510,21 @@
       <c r="J46" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K46" s="6" t="s">
+      <c r="K46" s="2" t="s">
         <v>34</v>
       </c>
       <c r="L46" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M46" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N46" s="6" t="s">
+      <c r="M46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N46" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+    <row r="47">
+      <c r="A47" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3891,21 +3554,21 @@
       <c r="J47" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K47" s="6" t="s">
+      <c r="K47" s="2" t="s">
         <v>34</v>
       </c>
       <c r="L47" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M47" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N47" s="6" t="s">
+      <c r="M47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N47" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
+    <row r="48">
+      <c r="A48" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3935,21 +3598,21 @@
       <c r="J48" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="K48" s="6" t="s">
+      <c r="K48" s="2" t="s">
         <v>34</v>
       </c>
       <c r="L48" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M48" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N48" s="6" t="s">
+      <c r="M48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N48" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+    <row r="49">
+      <c r="A49" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3979,21 +3642,21 @@
       <c r="J49" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K49" s="6" t="s">
+      <c r="K49" s="2" t="s">
         <v>34</v>
       </c>
       <c r="L49" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M49" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N49" s="6" t="s">
+      <c r="M49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N49" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+    <row r="50">
+      <c r="A50" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -4023,21 +3686,21 @@
       <c r="J50" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K50" s="6" t="s">
+      <c r="K50" s="2" t="s">
         <v>34</v>
       </c>
       <c r="L50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M50" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N50" s="6" t="s">
+      <c r="M50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N50" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+    <row r="51">
+      <c r="A51" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -4067,21 +3730,21 @@
       <c r="J51" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="K51" s="6" t="s">
+      <c r="K51" s="2" t="s">
         <v>34</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M51" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N51" s="6" t="s">
+      <c r="M51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N51" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+    <row r="52">
+      <c r="A52" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -4111,21 +3774,21 @@
       <c r="J52" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K52" s="6" t="s">
+      <c r="K52" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L52" s="6" t="s">
+      <c r="L52" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M52" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N52" s="6" t="s">
+      <c r="M52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N52" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+    <row r="53">
+      <c r="A53" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -4155,21 +3818,21 @@
       <c r="J53" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="K53" s="6" t="s">
+      <c r="K53" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L53" s="6" t="s">
+      <c r="L53" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M53" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N53" s="6" t="s">
+      <c r="M53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N53" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+    <row r="54">
+      <c r="A54" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -4199,21 +3862,21 @@
       <c r="J54" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K54" s="6" t="s">
+      <c r="K54" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L54" s="6" t="s">
+      <c r="L54" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M54" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N54" s="6" t="s">
+      <c r="M54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N54" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
+    <row r="55">
+      <c r="A55" s="2" t="s">
         <v>175</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -4243,21 +3906,21 @@
       <c r="J55" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K55" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L55" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M55" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N55" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="7" t="s">
+      <c r="K55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -4287,21 +3950,21 @@
       <c r="J56" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K56" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M56" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N56" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="8" t="s">
+      <c r="K56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -4331,21 +3994,21 @@
       <c r="J57" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="K57" s="8" t="s">
-        <v>154</v>
+      <c r="K57" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M57" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N57" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="8" t="s">
+      <c r="M57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -4375,21 +4038,21 @@
       <c r="J58" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="K58" s="8" t="s">
-        <v>154</v>
+      <c r="K58" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="L58" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M58" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N58" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="8" t="s">
+      <c r="M58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -4419,21 +4082,21 @@
       <c r="J59" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K59" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L59" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M59" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N59" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="8" t="s">
+      <c r="K59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -4463,21 +4126,21 @@
       <c r="J60" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K60" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L60" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M60" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N60" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="8" t="s">
+      <c r="K60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -4507,21 +4170,21 @@
       <c r="J61" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K61" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L61" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M61" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N61" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="8" t="s">
+      <c r="K61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -4551,21 +4214,21 @@
       <c r="J62" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K62" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L62" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M62" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N62" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="8" t="s">
+      <c r="K62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -4595,21 +4258,21 @@
       <c r="J63" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K63" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L63" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M63" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N63" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="8" t="s">
+      <c r="K63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -4639,21 +4302,21 @@
       <c r="J64" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K64" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L64" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M64" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N64" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="8" t="s">
+      <c r="K64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -4683,21 +4346,21 @@
       <c r="J65" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K65" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L65" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M65" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N65" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="8" t="s">
+      <c r="K65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="s">
         <v>210</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -4727,21 +4390,21 @@
       <c r="J66" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K66" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L66" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M66" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N66" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="9" t="s">
+      <c r="K66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="s">
         <v>210</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -4771,21 +4434,21 @@
       <c r="J67" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K67" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L67" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M67" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N67" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="6" t="s">
+      <c r="K67" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B68" s="2" t="s">
@@ -4815,21 +4478,21 @@
       <c r="J68" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="K68" s="6" t="s">
+      <c r="K68" s="2" t="s">
         <v>123</v>
       </c>
       <c r="L68" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M68" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N68" s="6" t="s">
+      <c r="M68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N68" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="6" t="s">
+    <row r="69">
+      <c r="A69" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B69" s="2" t="s">
@@ -4859,21 +4522,21 @@
       <c r="J69" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K69" s="6" t="s">
+      <c r="K69" s="2" t="s">
         <v>123</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M69" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N69" s="6" t="s">
+      <c r="M69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N69" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="6" t="s">
+    <row r="70">
+      <c r="A70" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -4903,21 +4566,21 @@
       <c r="J70" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K70" s="6" t="s">
+      <c r="K70" s="2" t="s">
         <v>123</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M70" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N70" s="6" t="s">
+      <c r="M70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N70" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
+    <row r="71">
+      <c r="A71" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -4947,21 +4610,21 @@
       <c r="J71" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="K71" s="6" t="s">
+      <c r="K71" s="2" t="s">
         <v>123</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M71" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N71" s="6" t="s">
+      <c r="M71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N71" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" s="6" t="s">
+    <row r="72">
+      <c r="A72" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B72" s="2" t="s">
@@ -4991,21 +4654,21 @@
       <c r="J72" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="K72" s="6" t="s">
+      <c r="K72" s="2" t="s">
         <v>123</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M72" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N72" s="6" t="s">
+      <c r="M72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N72" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+    <row r="73">
+      <c r="A73" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B73" s="2" t="s">
@@ -5035,21 +4698,21 @@
       <c r="J73" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="K73" s="6" t="s">
+      <c r="K73" s="2" t="s">
         <v>123</v>
       </c>
       <c r="L73" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M73" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N73" s="6" t="s">
+      <c r="M73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N73" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="6" t="s">
+    <row r="74">
+      <c r="A74" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B74" s="2" t="s">
@@ -5079,21 +4742,21 @@
       <c r="J74" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K74" s="6" t="s">
+      <c r="K74" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L74" s="6" t="s">
+      <c r="L74" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M74" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N74" s="6" t="s">
+      <c r="M74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
+    <row r="75">
+      <c r="A75" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -5123,21 +4786,21 @@
       <c r="J75" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K75" s="6" t="s">
+      <c r="K75" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L75" s="6" t="s">
+      <c r="L75" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M75" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N75" s="6" t="s">
+      <c r="M75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+    <row r="76">
+      <c r="A76" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B76" s="2" t="s">
@@ -5167,21 +4830,21 @@
       <c r="J76" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K76" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L76" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M76" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N76" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="6" t="s">
+      <c r="K76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N76" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B77" s="2" t="s">
@@ -5211,21 +4874,21 @@
       <c r="J77" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K77" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L77" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M77" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N77" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="7" t="s">
+      <c r="K77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N77" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B78" s="3" t="s">
@@ -5255,21 +4918,21 @@
       <c r="J78" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K78" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L78" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M78" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N78" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="8" t="s">
+      <c r="K78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="s">
         <v>250</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -5299,21 +4962,21 @@
       <c r="J79" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K79" s="8" t="s">
+      <c r="K79" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L79" s="8" t="s">
+      <c r="L79" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M79" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N79" s="8" t="s">
+      <c r="M79" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N79" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="8" t="s">
+    <row r="80">
+      <c r="A80" s="4" t="s">
         <v>250</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -5343,21 +5006,21 @@
       <c r="J80" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K80" s="8" t="s">
+      <c r="K80" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L80" s="8" t="s">
+      <c r="L80" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M80" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N80" s="8" t="s">
+      <c r="M80" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N80" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="s">
+    <row r="81">
+      <c r="A81" s="4" t="s">
         <v>250</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -5387,21 +5050,21 @@
       <c r="J81" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K81" s="8" t="s">
+      <c r="K81" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L81" s="8" t="s">
+      <c r="L81" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M81" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N81" s="8" t="s">
+      <c r="M81" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N81" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="8" t="s">
+    <row r="82">
+      <c r="A82" s="4" t="s">
         <v>250</v>
       </c>
       <c r="B82" s="4" t="s">
@@ -5431,21 +5094,21 @@
       <c r="J82" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K82" s="8" t="s">
+      <c r="K82" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L82" s="8" t="s">
+      <c r="L82" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M82" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N82" s="8" t="s">
+      <c r="M82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N82" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="8" t="s">
+    <row r="83">
+      <c r="A83" s="4" t="s">
         <v>250</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -5475,21 +5138,21 @@
       <c r="J83" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K83" s="8" t="s">
+      <c r="K83" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L83" s="8" t="s">
+      <c r="L83" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M83" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N83" s="8" t="s">
+      <c r="M83" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N83" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="8" t="s">
+    <row r="84">
+      <c r="A84" s="4" t="s">
         <v>250</v>
       </c>
       <c r="B84" s="4" t="s">
@@ -5519,21 +5182,21 @@
       <c r="J84" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K84" s="8" t="s">
+      <c r="K84" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L84" s="8" t="s">
+      <c r="L84" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M84" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N84" s="8" t="s">
+      <c r="M84" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N84" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="8" t="s">
+    <row r="85">
+      <c r="A85" s="4" t="s">
         <v>250</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -5563,21 +5226,21 @@
       <c r="J85" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K85" s="8" t="s">
+      <c r="K85" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L85" s="8" t="s">
+      <c r="L85" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M85" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N85" s="8" t="s">
+      <c r="M85" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N85" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="8" t="s">
+    <row r="86">
+      <c r="A86" s="4" t="s">
         <v>250</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -5607,21 +5270,21 @@
       <c r="J86" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K86" s="8" t="s">
+      <c r="K86" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L86" s="8" t="s">
+      <c r="L86" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M86" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N86" s="8" t="s">
+      <c r="M86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N86" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="8" t="s">
+    <row r="87">
+      <c r="A87" s="4" t="s">
         <v>250</v>
       </c>
       <c r="B87" s="4" t="s">
@@ -5651,21 +5314,21 @@
       <c r="J87" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K87" s="8" t="s">
+      <c r="K87" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L87" s="8" t="s">
+      <c r="L87" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M87" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N87" s="8" t="s">
+      <c r="M87" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N87" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="8" t="s">
+    <row r="88">
+      <c r="A88" s="4" t="s">
         <v>250</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -5695,21 +5358,21 @@
       <c r="J88" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K88" s="8" t="s">
+      <c r="K88" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L88" s="8" t="s">
+      <c r="L88" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M88" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N88" s="8" t="s">
+      <c r="M88" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N88" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="9" t="s">
+    <row r="89">
+      <c r="A89" s="5" t="s">
         <v>250</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -5745,15 +5408,15 @@
       <c r="L89" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="M89" s="9" t="s">
+      <c r="M89" s="5" t="s">
         <v>21</v>
       </c>
       <c r="N89" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="6" t="s">
+    <row r="90">
+      <c r="A90" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B90" s="2" t="s">
@@ -5783,21 +5446,21 @@
       <c r="J90" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K90" s="6" t="s">
+      <c r="K90" s="2" t="s">
         <v>115</v>
       </c>
       <c r="L90" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M90" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N90" s="6" t="s">
+      <c r="M90" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N90" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="6" t="s">
+    <row r="91">
+      <c r="A91" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -5827,21 +5490,21 @@
       <c r="J91" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K91" s="6" t="s">
+      <c r="K91" s="2" t="s">
         <v>115</v>
       </c>
       <c r="L91" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M91" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N91" s="6" t="s">
+      <c r="M91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N91" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="6" t="s">
+    <row r="92">
+      <c r="A92" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B92" s="2" t="s">
@@ -5871,21 +5534,21 @@
       <c r="J92" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K92" s="6" t="s">
+      <c r="K92" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L92" s="6" t="s">
+      <c r="L92" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M92" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N92" s="6" t="s">
+      <c r="M92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N92" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="6" t="s">
+    <row r="93">
+      <c r="A93" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B93" s="2" t="s">
@@ -5915,21 +5578,21 @@
       <c r="J93" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K93" s="6" t="s">
+      <c r="K93" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L93" s="6" t="s">
+      <c r="L93" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M93" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N93" s="6" t="s">
+      <c r="M93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N93" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="6" t="s">
+    <row r="94">
+      <c r="A94" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B94" s="2" t="s">
@@ -5959,21 +5622,21 @@
       <c r="J94" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K94" s="6" t="s">
+      <c r="K94" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L94" s="6" t="s">
+      <c r="L94" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M94" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N94" s="6" t="s">
+      <c r="M94" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N94" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="6" t="s">
+    <row r="95">
+      <c r="A95" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B95" s="2" t="s">
@@ -6003,21 +5666,21 @@
       <c r="J95" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K95" s="6" t="s">
+      <c r="K95" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L95" s="6" t="s">
+      <c r="L95" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M95" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N95" s="6" t="s">
+      <c r="M95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N95" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="6" t="s">
+    <row r="96">
+      <c r="A96" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -6047,21 +5710,21 @@
       <c r="J96" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K96" s="6" t="s">
+      <c r="K96" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L96" s="6" t="s">
+      <c r="L96" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M96" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N96" s="6" t="s">
+      <c r="M96" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N96" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="6" t="s">
+    <row r="97">
+      <c r="A97" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B97" s="2" t="s">
@@ -6091,21 +5754,21 @@
       <c r="J97" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K97" s="6" t="s">
+      <c r="K97" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L97" s="6" t="s">
+      <c r="L97" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M97" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N97" s="6" t="s">
+      <c r="M97" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N97" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="6" t="s">
+    <row r="98">
+      <c r="A98" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B98" s="2" t="s">
@@ -6135,21 +5798,21 @@
       <c r="J98" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K98" s="6" t="s">
+      <c r="K98" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="L98" s="6" t="s">
+      <c r="L98" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M98" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N98" s="6" t="s">
+      <c r="M98" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N98" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="6" t="s">
+    <row r="99">
+      <c r="A99" s="2" t="s">
         <v>273</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -6179,21 +5842,21 @@
       <c r="J99" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K99" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L99" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M99" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N99" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="7" t="s">
+      <c r="K99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="3" t="s">
         <v>273</v>
       </c>
       <c r="B100" s="3" t="s">
@@ -6223,21 +5886,21 @@
       <c r="J100" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K100" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L100" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M100" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N100" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="8" t="s">
+      <c r="K100" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="s">
         <v>293</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -6267,21 +5930,21 @@
       <c r="J101" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="K101" s="8" t="s">
+      <c r="K101" s="4" t="s">
         <v>168</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M101" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N101" s="8" t="s">
+      <c r="M101" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N101" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102" s="8" t="s">
+    <row r="102">
+      <c r="A102" s="4" t="s">
         <v>293</v>
       </c>
       <c r="B102" s="4" t="s">
@@ -6311,21 +5974,21 @@
       <c r="J102" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="K102" s="8" t="s">
+      <c r="K102" s="4" t="s">
         <v>168</v>
       </c>
       <c r="L102" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="M102" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N102" s="8" t="s">
+      <c r="M102" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N102" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="8" t="s">
+    <row r="103">
+      <c r="A103" s="4" t="s">
         <v>293</v>
       </c>
       <c r="B103" s="4" t="s">
@@ -6355,21 +6018,21 @@
       <c r="J103" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K103" s="8" t="s">
+      <c r="K103" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="L103" s="8" t="s">
+      <c r="L103" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M103" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N103" s="8" t="s">
+      <c r="M103" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N103" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="8" t="s">
+    <row r="104">
+      <c r="A104" s="4" t="s">
         <v>293</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -6399,21 +6062,21 @@
       <c r="J104" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K104" s="8" t="s">
+      <c r="K104" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="L104" s="8" t="s">
+      <c r="L104" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M104" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N104" s="8" t="s">
+      <c r="M104" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N104" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" s="8" t="s">
+    <row r="105">
+      <c r="A105" s="4" t="s">
         <v>293</v>
       </c>
       <c r="B105" s="4" t="s">
@@ -6443,21 +6106,21 @@
       <c r="J105" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K105" s="8" t="s">
+      <c r="K105" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="L105" s="8" t="s">
+      <c r="L105" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M105" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N105" s="8" t="s">
+      <c r="M105" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N105" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="8" t="s">
+    <row r="106">
+      <c r="A106" s="4" t="s">
         <v>293</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -6487,21 +6150,21 @@
       <c r="J106" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="K106" s="8" t="s">
+      <c r="K106" s="4" t="s">
         <v>168</v>
       </c>
       <c r="L106" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="M106" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N106" s="8" t="s">
+      <c r="M106" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N106" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" s="8" t="s">
+    <row r="107">
+      <c r="A107" s="4" t="s">
         <v>293</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -6531,21 +6194,21 @@
       <c r="J107" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K107" s="8" t="s">
+      <c r="K107" s="4" t="s">
         <v>168</v>
       </c>
       <c r="L107" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="M107" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N107" s="8" t="s">
+      <c r="M107" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N107" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="8" t="s">
+    <row r="108">
+      <c r="A108" s="4" t="s">
         <v>293</v>
       </c>
       <c r="B108" s="4" t="s">
@@ -6575,21 +6238,21 @@
       <c r="J108" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="K108" s="8" t="s">
+      <c r="K108" s="4" t="s">
         <v>168</v>
       </c>
       <c r="L108" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M108" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N108" s="8" t="s">
+      <c r="M108" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N108" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="8" t="s">
+    <row r="109">
+      <c r="A109" s="4" t="s">
         <v>293</v>
       </c>
       <c r="B109" s="4" t="s">
@@ -6619,21 +6282,21 @@
       <c r="J109" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K109" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L109" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M109" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N109" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A110" s="8" t="s">
+      <c r="K109" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M109" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N109" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="s">
         <v>293</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -6663,21 +6326,21 @@
       <c r="J110" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K110" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L110" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M110" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N110" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="9" t="s">
+      <c r="K110" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M110" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="5" t="s">
         <v>293</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -6707,21 +6370,21 @@
       <c r="J111" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K111" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L111" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M111" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N111" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A112" s="6" t="s">
+      <c r="K111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M111" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N111" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
         <v>318</v>
       </c>
       <c r="B112" s="2" t="s">
@@ -6751,21 +6414,21 @@
       <c r="J112" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K112" s="6" t="s">
+      <c r="K112" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L112" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M112" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N112" s="6" t="s">
+      <c r="M112" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N112" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113" s="6" t="s">
+    <row r="113">
+      <c r="A113" s="2" t="s">
         <v>318</v>
       </c>
       <c r="B113" s="2" t="s">
@@ -6795,21 +6458,21 @@
       <c r="J113" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K113" s="6" t="s">
+      <c r="K113" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L113" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M113" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N113" s="6" t="s">
+      <c r="M113" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N113" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114" s="6" t="s">
+    <row r="114">
+      <c r="A114" s="2" t="s">
         <v>318</v>
       </c>
       <c r="B114" s="2" t="s">
@@ -6839,21 +6502,21 @@
       <c r="J114" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K114" s="6" t="s">
+      <c r="K114" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L114" s="6" t="s">
+      <c r="L114" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M114" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N114" s="6" t="s">
+      <c r="M114" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N114" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="6" t="s">
+    <row r="115">
+      <c r="A115" s="2" t="s">
         <v>318</v>
       </c>
       <c r="B115" s="2" t="s">
@@ -6883,21 +6546,21 @@
       <c r="J115" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K115" s="6" t="s">
+      <c r="K115" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L115" s="6" t="s">
+      <c r="L115" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M115" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N115" s="6" t="s">
+      <c r="M115" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N115" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="6" t="s">
+    <row r="116">
+      <c r="A116" s="2" t="s">
         <v>318</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -6927,21 +6590,21 @@
       <c r="J116" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="K116" s="6" t="s">
+      <c r="K116" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L116" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="M116" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N116" s="6" t="s">
+      <c r="M116" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N116" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="6" t="s">
+    <row r="117">
+      <c r="A117" s="2" t="s">
         <v>318</v>
       </c>
       <c r="B117" s="2" t="s">
@@ -6971,21 +6634,21 @@
       <c r="J117" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K117" s="6" t="s">
+      <c r="K117" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L117" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M117" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N117" s="6" t="s">
+      <c r="M117" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N117" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="6" t="s">
+    <row r="118">
+      <c r="A118" s="2" t="s">
         <v>318</v>
       </c>
       <c r="B118" s="2" t="s">
@@ -7015,21 +6678,21 @@
       <c r="J118" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K118" s="6" t="s">
+      <c r="K118" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L118" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M118" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N118" s="6" t="s">
+      <c r="M118" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N118" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119" s="6" t="s">
+    <row r="119">
+      <c r="A119" s="2" t="s">
         <v>318</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -7059,21 +6722,21 @@
       <c r="J119" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K119" s="6" t="s">
+      <c r="K119" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L119" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M119" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N119" s="6" t="s">
+      <c r="M119" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N119" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A120" s="6" t="s">
+    <row r="120">
+      <c r="A120" s="2" t="s">
         <v>318</v>
       </c>
       <c r="B120" s="2" t="s">
@@ -7103,21 +6766,21 @@
       <c r="J120" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K120" s="6" t="s">
+      <c r="K120" s="2" t="s">
         <v>23</v>
       </c>
       <c r="L120" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M120" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N120" s="6" t="s">
+      <c r="M120" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N120" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="6" t="s">
+    <row r="121">
+      <c r="A121" s="2" t="s">
         <v>318</v>
       </c>
       <c r="B121" s="2" t="s">
@@ -7147,21 +6810,21 @@
       <c r="J121" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K121" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L121" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M121" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N121" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="7" t="s">
+      <c r="K121" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M121" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N121" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="3" t="s">
         <v>318</v>
       </c>
       <c r="B122" s="3" t="s">
@@ -7191,21 +6854,21 @@
       <c r="J122" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K122" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L122" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M122" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N122" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="8" t="s">
+      <c r="K122" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M122" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N122" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="4" t="s">
         <v>342</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -7235,21 +6898,21 @@
       <c r="J123" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K123" s="8" t="s">
+      <c r="K123" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="L123" s="8" t="s">
+      <c r="L123" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M123" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N123" s="8" t="s">
+      <c r="M123" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N123" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A124" s="8" t="s">
+    <row r="124">
+      <c r="A124" s="4" t="s">
         <v>342</v>
       </c>
       <c r="B124" s="4" t="s">
@@ -7279,21 +6942,21 @@
       <c r="J124" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K124" s="8" t="s">
+      <c r="K124" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="L124" s="8" t="s">
+      <c r="L124" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M124" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N124" s="8" t="s">
+      <c r="M124" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N124" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="8" t="s">
+    <row r="125">
+      <c r="A125" s="4" t="s">
         <v>342</v>
       </c>
       <c r="B125" s="4" t="s">
@@ -7323,21 +6986,21 @@
       <c r="J125" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K125" s="8" t="s">
+      <c r="K125" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="L125" s="8" t="s">
+      <c r="L125" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M125" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N125" s="8" t="s">
+      <c r="M125" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N125" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="8" t="s">
+    <row r="126">
+      <c r="A126" s="4" t="s">
         <v>342</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -7367,21 +7030,21 @@
       <c r="J126" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K126" s="8" t="s">
+      <c r="K126" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="L126" s="8" t="s">
+      <c r="L126" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M126" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N126" s="8" t="s">
+      <c r="M126" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N126" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="8" t="s">
+    <row r="127">
+      <c r="A127" s="4" t="s">
         <v>342</v>
       </c>
       <c r="B127" s="4" t="s">
@@ -7411,21 +7074,21 @@
       <c r="J127" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K127" s="8" t="s">
+      <c r="K127" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="L127" s="8" t="s">
+      <c r="L127" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M127" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N127" s="8" t="s">
+      <c r="M127" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N127" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="8" t="s">
+    <row r="128">
+      <c r="A128" s="4" t="s">
         <v>342</v>
       </c>
       <c r="B128" s="4" t="s">
@@ -7455,21 +7118,21 @@
       <c r="J128" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K128" s="8" t="s">
+      <c r="K128" s="4" t="s">
         <v>198</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M128" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N128" s="8" t="s">
+      <c r="M128" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N128" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A129" s="8" t="s">
+    <row r="129">
+      <c r="A129" s="4" t="s">
         <v>342</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -7499,21 +7162,21 @@
       <c r="J129" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K129" s="8" t="s">
+      <c r="K129" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="L129" s="8" t="s">
+      <c r="L129" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M129" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N129" s="8" t="s">
+      <c r="M129" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N129" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="8" t="s">
+    <row r="130">
+      <c r="A130" s="4" t="s">
         <v>342</v>
       </c>
       <c r="B130" s="4" t="s">
@@ -7543,21 +7206,21 @@
       <c r="J130" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K130" s="8" t="s">
+      <c r="K130" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="L130" s="8" t="s">
+      <c r="L130" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M130" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N130" s="8" t="s">
+      <c r="M130" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N130" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="8" t="s">
+    <row r="131">
+      <c r="A131" s="4" t="s">
         <v>342</v>
       </c>
       <c r="B131" s="4" t="s">
@@ -7587,21 +7250,21 @@
       <c r="J131" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="K131" s="8" t="s">
+      <c r="K131" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="L131" s="8" t="s">
+      <c r="L131" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="M131" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N131" s="8" t="s">
+      <c r="M131" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N131" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="8" t="s">
+    <row r="132">
+      <c r="A132" s="4" t="s">
         <v>342</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -7631,21 +7294,21 @@
       <c r="J132" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K132" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L132" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M132" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N132" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="9" t="s">
+      <c r="K132" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L132" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M132" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N132" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="5" t="s">
         <v>342</v>
       </c>
       <c r="B133" s="5" t="s">
@@ -7675,21 +7338,21 @@
       <c r="J133" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K133" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L133" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M133" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N133" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A134" s="6" t="s">
+      <c r="K133" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L133" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M133" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N133" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="s">
         <v>363</v>
       </c>
       <c r="B134" s="2" t="s">
@@ -7719,21 +7382,21 @@
       <c r="J134" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K134" s="6" t="s">
+      <c r="K134" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L134" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M134" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N134" s="6" t="s">
+      <c r="M134" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N134" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A135" s="6" t="s">
+    <row r="135">
+      <c r="A135" s="2" t="s">
         <v>363</v>
       </c>
       <c r="B135" s="2" t="s">
@@ -7763,21 +7426,21 @@
       <c r="J135" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="K135" s="6" t="s">
+      <c r="K135" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L135" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M135" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N135" s="6" t="s">
+      <c r="M135" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N135" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A136" s="6" t="s">
+    <row r="136">
+      <c r="A136" s="2" t="s">
         <v>363</v>
       </c>
       <c r="B136" s="2" t="s">
@@ -7807,21 +7470,21 @@
       <c r="J136" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="K136" s="6" t="s">
+      <c r="K136" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L136" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M136" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N136" s="6" t="s">
+      <c r="M136" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N136" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A137" s="6" t="s">
+    <row r="137">
+      <c r="A137" s="2" t="s">
         <v>363</v>
       </c>
       <c r="B137" s="2" t="s">
@@ -7851,21 +7514,21 @@
       <c r="J137" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K137" s="6" t="s">
+      <c r="K137" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L137" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M137" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N137" s="6" t="s">
+      <c r="M137" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N137" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A138" s="6" t="s">
+    <row r="138">
+      <c r="A138" s="2" t="s">
         <v>363</v>
       </c>
       <c r="B138" s="2" t="s">
@@ -7895,21 +7558,21 @@
       <c r="J138" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="K138" s="6" t="s">
+      <c r="K138" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L138" s="6" t="s">
+      <c r="L138" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M138" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N138" s="6" t="s">
+      <c r="M138" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N138" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A139" s="6" t="s">
+    <row r="139">
+      <c r="A139" s="2" t="s">
         <v>363</v>
       </c>
       <c r="B139" s="2" t="s">
@@ -7939,21 +7602,21 @@
       <c r="J139" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="K139" s="6" t="s">
+      <c r="K139" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="L139" s="6" t="s">
+      <c r="L139" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M139" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N139" s="6" t="s">
+      <c r="M139" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N139" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A140" s="6" t="s">
+    <row r="140">
+      <c r="A140" s="2" t="s">
         <v>363</v>
       </c>
       <c r="B140" s="2" t="s">
@@ -7983,21 +7646,21 @@
       <c r="J140" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K140" s="6" t="s">
+      <c r="K140" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L140" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M140" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N140" s="6" t="s">
+      <c r="M140" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N140" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A141" s="6" t="s">
+    <row r="141">
+      <c r="A141" s="2" t="s">
         <v>363</v>
       </c>
       <c r="B141" s="2" t="s">
@@ -8027,21 +7690,21 @@
       <c r="J141" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K141" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L141" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M141" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N141" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A142" s="6" t="s">
+      <c r="K141" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N141" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
         <v>363</v>
       </c>
       <c r="B142" s="2" t="s">
@@ -8071,21 +7734,21 @@
       <c r="J142" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K142" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L142" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M142" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N142" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A143" s="6" t="s">
+      <c r="K142" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
         <v>363</v>
       </c>
       <c r="B143" s="2" t="s">
@@ -8115,21 +7778,21 @@
       <c r="J143" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K143" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L143" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M143" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N143" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A144" s="7" t="s">
+      <c r="K143" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N143" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="s">
         <v>363</v>
       </c>
       <c r="B144" s="3" t="s">
@@ -8159,21 +7822,21 @@
       <c r="J144" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K144" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L144" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M144" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N144" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A145" s="8" t="s">
+      <c r="K144" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L144" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M144" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N144" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="4" t="s">
         <v>382</v>
       </c>
       <c r="B145" s="4" t="s">
@@ -8203,21 +7866,21 @@
       <c r="J145" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K145" s="8" t="s">
+      <c r="K145" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="L145" s="8" t="s">
+      <c r="L145" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="M145" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N145" s="8" t="s">
+      <c r="M145" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N145" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A146" s="8" t="s">
+    <row r="146">
+      <c r="A146" s="4" t="s">
         <v>382</v>
       </c>
       <c r="B146" s="4" t="s">
@@ -8247,21 +7910,21 @@
       <c r="J146" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K146" s="8" t="s">
+      <c r="K146" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="L146" s="8" t="s">
+      <c r="L146" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="M146" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N146" s="8" t="s">
+      <c r="M146" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N146" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A147" s="8" t="s">
+    <row r="147">
+      <c r="A147" s="4" t="s">
         <v>382</v>
       </c>
       <c r="B147" s="4" t="s">
@@ -8291,21 +7954,21 @@
       <c r="J147" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K147" s="8" t="s">
+      <c r="K147" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="L147" s="8" t="s">
+      <c r="L147" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="M147" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N147" s="8" t="s">
+      <c r="M147" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N147" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A148" s="8" t="s">
+    <row r="148">
+      <c r="A148" s="4" t="s">
         <v>382</v>
       </c>
       <c r="B148" s="4" t="s">
@@ -8335,21 +7998,21 @@
       <c r="J148" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K148" s="8" t="s">
+      <c r="K148" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="L148" s="8" t="s">
+      <c r="L148" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="M148" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N148" s="8" t="s">
+      <c r="M148" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N148" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A149" s="8" t="s">
+    <row r="149">
+      <c r="A149" s="4" t="s">
         <v>382</v>
       </c>
       <c r="B149" s="4" t="s">
@@ -8379,21 +8042,21 @@
       <c r="J149" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="K149" s="8" t="s">
+      <c r="K149" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="L149" s="8" t="s">
+      <c r="L149" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="M149" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N149" s="8" t="s">
+      <c r="M149" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N149" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A150" s="8" t="s">
+    <row r="150">
+      <c r="A150" s="4" t="s">
         <v>382</v>
       </c>
       <c r="B150" s="4" t="s">
@@ -8423,21 +8086,21 @@
       <c r="J150" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K150" s="8" t="s">
+      <c r="K150" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="L150" s="8" t="s">
+      <c r="L150" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M150" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N150" s="8" t="s">
+      <c r="M150" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N150" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A151" s="8" t="s">
+    <row r="151">
+      <c r="A151" s="4" t="s">
         <v>382</v>
       </c>
       <c r="B151" s="4" t="s">
@@ -8467,21 +8130,21 @@
       <c r="J151" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K151" s="8" t="s">
+      <c r="K151" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="L151" s="8" t="s">
+      <c r="L151" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M151" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N151" s="8" t="s">
+      <c r="M151" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N151" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A152" s="8" t="s">
+    <row r="152">
+      <c r="A152" s="4" t="s">
         <v>382</v>
       </c>
       <c r="B152" s="4" t="s">
@@ -8511,21 +8174,21 @@
       <c r="J152" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K152" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L152" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M152" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N152" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A153" s="8" t="s">
+      <c r="K152" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L152" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M152" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N152" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="4" t="s">
         <v>382</v>
       </c>
       <c r="B153" s="4" t="s">
@@ -8555,21 +8218,21 @@
       <c r="J153" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K153" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L153" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M153" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N153" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A154" s="8" t="s">
+      <c r="K153" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L153" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M153" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N153" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="4" t="s">
         <v>382</v>
       </c>
       <c r="B154" s="4" t="s">
@@ -8599,21 +8262,21 @@
       <c r="J154" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K154" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L154" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M154" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N154" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A155" s="9" t="s">
+      <c r="K154" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L154" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M154" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N154" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="5" t="s">
         <v>382</v>
       </c>
       <c r="B155" s="5" t="s">
@@ -8643,21 +8306,21 @@
       <c r="J155" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K155" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L155" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M155" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N155" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A156" s="6" t="s">
+      <c r="K155" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L155" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M155" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N155" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -8687,21 +8350,21 @@
       <c r="J156" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K156" s="6" t="s">
+      <c r="K156" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="L156" s="6" t="s">
+      <c r="L156" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M156" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N156" s="6" t="s">
+      <c r="M156" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N156" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A157" s="6" t="s">
+    <row r="157">
+      <c r="A157" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B157" s="2" t="s">
@@ -8731,21 +8394,21 @@
       <c r="J157" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K157" s="6" t="s">
+      <c r="K157" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="L157" s="6" t="s">
+      <c r="L157" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M157" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N157" s="6" t="s">
+      <c r="M157" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N157" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A158" s="6" t="s">
+    <row r="158">
+      <c r="A158" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B158" s="2" t="s">
@@ -8775,21 +8438,21 @@
       <c r="J158" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K158" s="6" t="s">
+      <c r="K158" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="L158" s="6" t="s">
+      <c r="L158" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M158" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N158" s="6" t="s">
+      <c r="M158" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N158" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A159" s="6" t="s">
+    <row r="159">
+      <c r="A159" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -8819,21 +8482,21 @@
       <c r="J159" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="K159" s="6" t="s">
+      <c r="K159" s="2" t="s">
         <v>107</v>
       </c>
       <c r="L159" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M159" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N159" s="6" t="s">
+      <c r="M159" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N159" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A160" s="6" t="s">
+    <row r="160">
+      <c r="A160" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B160" s="2" t="s">
@@ -8863,21 +8526,21 @@
       <c r="J160" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="K160" s="6" t="s">
+      <c r="K160" s="2" t="s">
         <v>107</v>
       </c>
       <c r="L160" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M160" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N160" s="6" t="s">
+      <c r="M160" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N160" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A161" s="6" t="s">
+    <row r="161">
+      <c r="A161" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B161" s="2" t="s">
@@ -8907,21 +8570,21 @@
       <c r="J161" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="K161" s="6" t="s">
+      <c r="K161" s="2" t="s">
         <v>107</v>
       </c>
       <c r="L161" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M161" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N161" s="6" t="s">
+      <c r="M161" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N161" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A162" s="6" t="s">
+    <row r="162">
+      <c r="A162" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B162" s="2" t="s">
@@ -8951,21 +8614,21 @@
       <c r="J162" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="K162" s="6" t="s">
+      <c r="K162" s="2" t="s">
         <v>107</v>
       </c>
       <c r="L162" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M162" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N162" s="6" t="s">
+      <c r="M162" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N162" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A163" s="6" t="s">
+    <row r="163">
+      <c r="A163" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B163" s="2" t="s">
@@ -8995,21 +8658,21 @@
       <c r="J163" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="K163" s="6" t="s">
+      <c r="K163" s="2" t="s">
         <v>107</v>
       </c>
       <c r="L163" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M163" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N163" s="6" t="s">
+      <c r="M163" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N163" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A164" s="6" t="s">
+    <row r="164">
+      <c r="A164" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B164" s="2" t="s">
@@ -9039,21 +8702,21 @@
       <c r="J164" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="K164" s="6" t="s">
+      <c r="K164" s="2" t="s">
         <v>107</v>
       </c>
       <c r="L164" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="M164" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N164" s="6" t="s">
+      <c r="M164" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N164" s="2" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A165" s="6" t="s">
+    <row r="165">
+      <c r="A165" s="2" t="s">
         <v>401</v>
       </c>
       <c r="B165" s="2" t="s">
@@ -9083,21 +8746,21 @@
       <c r="J165" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K165" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L165" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M165" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N165" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A166" s="7" t="s">
+      <c r="K165" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M165" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N165" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="3" t="s">
         <v>401</v>
       </c>
       <c r="B166" s="3" t="s">
@@ -9127,21 +8790,21 @@
       <c r="J166" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K166" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L166" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M166" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N166" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A167" s="8" t="s">
+      <c r="K166" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M166" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N166" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="4" t="s">
         <v>426</v>
       </c>
       <c r="B167" s="4" t="s">
@@ -9171,21 +8834,21 @@
       <c r="J167" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K167" s="8" t="s">
+      <c r="K167" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="L167" s="8" t="s">
+      <c r="L167" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M167" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N167" s="8" t="s">
+      <c r="M167" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N167" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A168" s="8" t="s">
+    <row r="168">
+      <c r="A168" s="4" t="s">
         <v>426</v>
       </c>
       <c r="B168" s="4" t="s">
@@ -9215,21 +8878,21 @@
       <c r="J168" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K168" s="8" t="s">
+      <c r="K168" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="L168" s="8" t="s">
+      <c r="L168" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M168" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N168" s="8" t="s">
+      <c r="M168" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N168" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A169" s="8" t="s">
+    <row r="169">
+      <c r="A169" s="4" t="s">
         <v>426</v>
       </c>
       <c r="B169" s="4" t="s">
@@ -9259,21 +8922,21 @@
       <c r="J169" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="K169" s="8" t="s">
+      <c r="K169" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="L169" s="8" t="s">
+      <c r="L169" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M169" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N169" s="8" t="s">
+      <c r="M169" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N169" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A170" s="8" t="s">
+    <row r="170">
+      <c r="A170" s="4" t="s">
         <v>426</v>
       </c>
       <c r="B170" s="4" t="s">
@@ -9303,21 +8966,21 @@
       <c r="J170" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="K170" s="8" t="s">
+      <c r="K170" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="L170" s="8" t="s">
+      <c r="L170" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M170" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N170" s="8" t="s">
+      <c r="M170" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N170" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A171" s="8" t="s">
+    <row r="171">
+      <c r="A171" s="4" t="s">
         <v>426</v>
       </c>
       <c r="B171" s="4" t="s">
@@ -9347,21 +9010,21 @@
       <c r="J171" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K171" s="8" t="s">
+      <c r="K171" s="4" t="s">
         <v>387</v>
       </c>
       <c r="L171" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M171" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N171" s="8" t="s">
+      <c r="M171" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N171" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A172" s="8" t="s">
+    <row r="172">
+      <c r="A172" s="4" t="s">
         <v>426</v>
       </c>
       <c r="B172" s="4" t="s">
@@ -9391,21 +9054,21 @@
       <c r="J172" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K172" s="8" t="s">
+      <c r="K172" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="L172" s="8" t="s">
+      <c r="L172" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M172" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N172" s="8" t="s">
+      <c r="M172" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N172" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A173" s="8" t="s">
+    <row r="173">
+      <c r="A173" s="4" t="s">
         <v>426</v>
       </c>
       <c r="B173" s="4" t="s">
@@ -9435,21 +9098,21 @@
       <c r="J173" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K173" s="8" t="s">
+      <c r="K173" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="L173" s="8" t="s">
+      <c r="L173" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M173" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N173" s="8" t="s">
+      <c r="M173" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N173" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A174" s="8" t="s">
+    <row r="174">
+      <c r="A174" s="4" t="s">
         <v>426</v>
       </c>
       <c r="B174" s="4" t="s">
@@ -9479,21 +9142,21 @@
       <c r="J174" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K174" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L174" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M174" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N174" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A175" s="8" t="s">
+      <c r="K174" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L174" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M174" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N174" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="4" t="s">
         <v>426</v>
       </c>
       <c r="B175" s="4" t="s">
@@ -9523,21 +9186,21 @@
       <c r="J175" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K175" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L175" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M175" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N175" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A176" s="8" t="s">
+      <c r="K175" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L175" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M175" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N175" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="4" t="s">
         <v>426</v>
       </c>
       <c r="B176" s="4" t="s">
@@ -9567,21 +9230,21 @@
       <c r="J176" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K176" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L176" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M176" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N176" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A177" s="9" t="s">
+      <c r="K176" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L176" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M176" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N176" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="5" t="s">
         <v>426</v>
       </c>
       <c r="B177" s="5" t="s">
@@ -9611,21 +9274,21 @@
       <c r="J177" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K177" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="L177" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="M177" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N177" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A178" s="6" t="s">
+      <c r="K177" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L177" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M177" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="N177" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
         <v>443</v>
       </c>
       <c r="B178" s="2" t="s">
@@ -9655,21 +9318,21 @@
       <c r="J178" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K178" s="6" t="s">
+      <c r="K178" s="2" t="s">
         <v>34</v>
       </c>
       <c r="L178" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M178" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N178" s="6" t="s">
+      <c r="M178" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N178" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A179" s="6" t="s">
+    <row r="179">
+      <c r="A179" s="2" t="s">
         <v>443</v>
       </c>
       <c r="B179" s="2" t="s">
@@ -9699,21 +9362,21 @@
       <c r="J179" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="K179" s="6" t="s">
+      <c r="K179" s="2" t="s">
         <v>34</v>
       </c>
       <c r="L179" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="M179" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N179" s="6" t="s">
+      <c r="M179" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N179" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A180" s="6" t="s">
+    <row r="180">
+      <c r="A180" s="2" t="s">
         <v>443</v>
       </c>
       <c r="B180" s="2" t="s">
@@ -9743,21 +9406,21 @@
       <c r="J180" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K180" s="6" t="s">
+      <c r="K180" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L180" s="6" t="s">
+      <c r="L180" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M180" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N180" s="6" t="s">
+      <c r="M180" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N180" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A181" s="6" t="s">
+    <row r="181">
+      <c r="A181" s="2" t="s">
         <v>443</v>
       </c>
       <c r="B181" s="2" t="s">
@@ -9787,21 +9450,21 @@
       <c r="J181" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K181" s="6" t="s">
+      <c r="K181" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L181" s="6" t="s">
+      <c r="L181" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M181" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N181" s="6" t="s">
+      <c r="M181" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N181" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A182" s="6" t="s">
+    <row r="182">
+      <c r="A182" s="2" t="s">
         <v>443</v>
       </c>
       <c r="B182" s="2" t="s">
@@ -9831,21 +9494,21 @@
       <c r="J182" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K182" s="6" t="s">
+      <c r="K182" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L182" s="6" t="s">
+      <c r="L182" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M182" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N182" s="6" t="s">
+      <c r="M182" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N182" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A183" s="6" t="s">
+    <row r="183">
+      <c r="A183" s="2" t="s">
         <v>443</v>
       </c>
       <c r="B183" s="2" t="s">
@@ -9875,21 +9538,21 @@
       <c r="J183" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K183" s="6" t="s">
+      <c r="K183" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L183" s="6" t="s">
+      <c r="L183" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M183" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N183" s="6" t="s">
+      <c r="M183" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N183" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A184" s="6" t="s">
+    <row r="184">
+      <c r="A184" s="2" t="s">
         <v>443</v>
       </c>
       <c r="B184" s="2" t="s">
@@ -9919,21 +9582,21 @@
       <c r="J184" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="K184" s="6" t="s">
+      <c r="K184" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L184" s="6" t="s">
+      <c r="L184" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="M184" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N184" s="6" t="s">
+      <c r="M184" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N184" s="2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A185" s="6" t="s">
+    <row r="185">
+      <c r="A185" s="2" t="s">
         <v>443</v>
       </c>
       <c r="B185" s="2" t="s">
@@ -9963,21 +9626,21 @@
       <c r="J185" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K185" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L185" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M185" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N185" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A186" s="6" t="s">
+      <c r="K185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M185" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N185" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
         <v>443</v>
       </c>
       <c r="B186" s="2" t="s">
@@ -10007,21 +9670,21 @@
       <c r="J186" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K186" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L186" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M186" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N186" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A187" s="6" t="s">
+      <c r="K186" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L186" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M186" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N186" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
         <v>443</v>
       </c>
       <c r="B187" s="2" t="s">
@@ -10051,21 +9714,21 @@
       <c r="J187" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K187" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L187" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="M187" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="N187" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A188" s="7" t="s">
+      <c r="K187" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L187" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M187" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N187" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="3" t="s">
         <v>443</v>
       </c>
       <c r="B188" s="3" t="s">
@@ -10095,56 +9758,103 @@
       <c r="J188" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K188" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L188" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="M188" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="N188" s="7" t="s">
+      <c r="K188" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L188" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M188" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N188" s="3" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="133">
-    <mergeCell ref="N165:N166"/>
-    <mergeCell ref="N167:N173"/>
-    <mergeCell ref="N174:N177"/>
-    <mergeCell ref="N178:N184"/>
-    <mergeCell ref="N185:N188"/>
-    <mergeCell ref="N134:N140"/>
-    <mergeCell ref="N141:N144"/>
-    <mergeCell ref="N145:N151"/>
-    <mergeCell ref="N152:N155"/>
-    <mergeCell ref="N156:N164"/>
-    <mergeCell ref="N109:N111"/>
-    <mergeCell ref="N112:N120"/>
-    <mergeCell ref="N121:N122"/>
-    <mergeCell ref="N123:N131"/>
-    <mergeCell ref="N132:N133"/>
-    <mergeCell ref="N76:N78"/>
-    <mergeCell ref="N79:N88"/>
-    <mergeCell ref="N90:N98"/>
-    <mergeCell ref="N99:N100"/>
-    <mergeCell ref="N101:N108"/>
-    <mergeCell ref="N46:N54"/>
-    <mergeCell ref="N55:N56"/>
-    <mergeCell ref="N57:N58"/>
-    <mergeCell ref="N59:N67"/>
-    <mergeCell ref="N68:N75"/>
-    <mergeCell ref="N2:N9"/>
-    <mergeCell ref="N10:N12"/>
-    <mergeCell ref="N13:N22"/>
-    <mergeCell ref="N24:N34"/>
-    <mergeCell ref="N35:N44"/>
-    <mergeCell ref="M134:M144"/>
-    <mergeCell ref="M145:M155"/>
-    <mergeCell ref="M156:M166"/>
-    <mergeCell ref="M167:M177"/>
-    <mergeCell ref="M178:M188"/>
+  <mergeCells>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A23"/>
+    <mergeCell ref="A24:A34"/>
+    <mergeCell ref="A35:A45"/>
+    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="A57:A67"/>
+    <mergeCell ref="A68:A78"/>
+    <mergeCell ref="A79:A89"/>
+    <mergeCell ref="A90:A100"/>
+    <mergeCell ref="A101:A111"/>
+    <mergeCell ref="A112:A122"/>
+    <mergeCell ref="A123:A133"/>
+    <mergeCell ref="A134:A144"/>
+    <mergeCell ref="A145:A155"/>
+    <mergeCell ref="A156:A166"/>
+    <mergeCell ref="A167:A177"/>
+    <mergeCell ref="A178:A188"/>
+    <mergeCell ref="K2:K9"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="K13:K22"/>
+    <mergeCell ref="K24:K34"/>
+    <mergeCell ref="K35:K44"/>
+    <mergeCell ref="K46:K54"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="K59:K67"/>
+    <mergeCell ref="K68:K75"/>
+    <mergeCell ref="K76:K78"/>
+    <mergeCell ref="K79:K88"/>
+    <mergeCell ref="K90:K98"/>
+    <mergeCell ref="K99:K100"/>
+    <mergeCell ref="K101:K108"/>
+    <mergeCell ref="K109:K111"/>
+    <mergeCell ref="K112:K120"/>
+    <mergeCell ref="K121:K122"/>
+    <mergeCell ref="K123:K131"/>
+    <mergeCell ref="K132:K133"/>
+    <mergeCell ref="K134:K140"/>
+    <mergeCell ref="K141:K144"/>
+    <mergeCell ref="K145:K151"/>
+    <mergeCell ref="K152:K155"/>
+    <mergeCell ref="K156:K164"/>
+    <mergeCell ref="K165:K166"/>
+    <mergeCell ref="K167:K173"/>
+    <mergeCell ref="K174:K177"/>
+    <mergeCell ref="K178:K184"/>
+    <mergeCell ref="K185:K188"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="L41:L44"/>
+    <mergeCell ref="L52:L54"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="L59:L67"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="L76:L78"/>
+    <mergeCell ref="L79:L80"/>
+    <mergeCell ref="L81:L82"/>
+    <mergeCell ref="L83:L88"/>
+    <mergeCell ref="L92:L96"/>
+    <mergeCell ref="L97:L98"/>
+    <mergeCell ref="L99:L100"/>
+    <mergeCell ref="L103:L105"/>
+    <mergeCell ref="L109:L111"/>
+    <mergeCell ref="L114:L115"/>
+    <mergeCell ref="L121:L122"/>
+    <mergeCell ref="L123:L127"/>
+    <mergeCell ref="L129:L131"/>
+    <mergeCell ref="L132:L133"/>
+    <mergeCell ref="L138:L139"/>
+    <mergeCell ref="L141:L144"/>
+    <mergeCell ref="L145:L149"/>
+    <mergeCell ref="L150:L151"/>
+    <mergeCell ref="L152:L155"/>
+    <mergeCell ref="L156:L158"/>
+    <mergeCell ref="L165:L166"/>
+    <mergeCell ref="L167:L170"/>
     <mergeCell ref="L172:L173"/>
     <mergeCell ref="L174:L177"/>
     <mergeCell ref="L180:L184"/>
@@ -10161,89 +9871,42 @@
     <mergeCell ref="M101:M111"/>
     <mergeCell ref="M112:M122"/>
     <mergeCell ref="M123:M133"/>
-    <mergeCell ref="L150:L151"/>
-    <mergeCell ref="L152:L155"/>
-    <mergeCell ref="L156:L158"/>
-    <mergeCell ref="L165:L166"/>
-    <mergeCell ref="L167:L170"/>
-    <mergeCell ref="L129:L131"/>
-    <mergeCell ref="L132:L133"/>
-    <mergeCell ref="L138:L139"/>
-    <mergeCell ref="L141:L144"/>
-    <mergeCell ref="L145:L149"/>
-    <mergeCell ref="L103:L105"/>
-    <mergeCell ref="L109:L111"/>
-    <mergeCell ref="L114:L115"/>
-    <mergeCell ref="L121:L122"/>
-    <mergeCell ref="L123:L127"/>
-    <mergeCell ref="L81:L82"/>
-    <mergeCell ref="L83:L88"/>
-    <mergeCell ref="L92:L96"/>
-    <mergeCell ref="L97:L98"/>
-    <mergeCell ref="L99:L100"/>
-    <mergeCell ref="K185:K188"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="L41:L44"/>
-    <mergeCell ref="L52:L54"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="L59:L67"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="L76:L78"/>
-    <mergeCell ref="L79:L80"/>
-    <mergeCell ref="K156:K164"/>
-    <mergeCell ref="K165:K166"/>
-    <mergeCell ref="K167:K173"/>
-    <mergeCell ref="K174:K177"/>
-    <mergeCell ref="K178:K184"/>
-    <mergeCell ref="K132:K133"/>
-    <mergeCell ref="K134:K140"/>
-    <mergeCell ref="K141:K144"/>
-    <mergeCell ref="K145:K151"/>
-    <mergeCell ref="K152:K155"/>
-    <mergeCell ref="K101:K108"/>
-    <mergeCell ref="K109:K111"/>
-    <mergeCell ref="K112:K120"/>
-    <mergeCell ref="K121:K122"/>
-    <mergeCell ref="K123:K131"/>
-    <mergeCell ref="A167:A177"/>
-    <mergeCell ref="A178:A188"/>
-    <mergeCell ref="K2:K9"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="K13:K22"/>
-    <mergeCell ref="K24:K34"/>
-    <mergeCell ref="K35:K44"/>
-    <mergeCell ref="K46:K54"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="K59:K67"/>
-    <mergeCell ref="K68:K75"/>
-    <mergeCell ref="K76:K78"/>
-    <mergeCell ref="K79:K88"/>
-    <mergeCell ref="K90:K98"/>
-    <mergeCell ref="K99:K100"/>
-    <mergeCell ref="A112:A122"/>
-    <mergeCell ref="A123:A133"/>
-    <mergeCell ref="A134:A144"/>
-    <mergeCell ref="A145:A155"/>
-    <mergeCell ref="A156:A166"/>
-    <mergeCell ref="A57:A67"/>
-    <mergeCell ref="A68:A78"/>
-    <mergeCell ref="A79:A89"/>
-    <mergeCell ref="A90:A100"/>
-    <mergeCell ref="A101:A111"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A13:A23"/>
-    <mergeCell ref="A24:A34"/>
-    <mergeCell ref="A35:A45"/>
-    <mergeCell ref="A46:A56"/>
+    <mergeCell ref="M134:M144"/>
+    <mergeCell ref="M145:M155"/>
+    <mergeCell ref="M156:M166"/>
+    <mergeCell ref="M167:M177"/>
+    <mergeCell ref="M178:M188"/>
+    <mergeCell ref="N2:N9"/>
+    <mergeCell ref="N10:N12"/>
+    <mergeCell ref="N13:N22"/>
+    <mergeCell ref="N24:N34"/>
+    <mergeCell ref="N35:N44"/>
+    <mergeCell ref="N46:N54"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="N57:N58"/>
+    <mergeCell ref="N59:N67"/>
+    <mergeCell ref="N68:N75"/>
+    <mergeCell ref="N76:N78"/>
+    <mergeCell ref="N79:N88"/>
+    <mergeCell ref="N90:N98"/>
+    <mergeCell ref="N99:N100"/>
+    <mergeCell ref="N101:N108"/>
+    <mergeCell ref="N109:N111"/>
+    <mergeCell ref="N112:N120"/>
+    <mergeCell ref="N121:N122"/>
+    <mergeCell ref="N123:N131"/>
+    <mergeCell ref="N132:N133"/>
+    <mergeCell ref="N134:N140"/>
+    <mergeCell ref="N141:N144"/>
+    <mergeCell ref="N145:N151"/>
+    <mergeCell ref="N152:N155"/>
+    <mergeCell ref="N156:N164"/>
+    <mergeCell ref="N165:N166"/>
+    <mergeCell ref="N167:N173"/>
+    <mergeCell ref="N174:N177"/>
+    <mergeCell ref="N178:N184"/>
+    <mergeCell ref="N185:N188"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>